--- a/exercises/dennis/exercise_4/Task_4_grid_results/res_bus/vm_pu.xlsx
+++ b/exercises/dennis/exercise_4/Task_4_grid_results/res_bus/vm_pu.xlsx
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.012466974655869</v>
+        <v>1.012204935817628</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.9903003630323725</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.011352438270528</v>
+        <v>1.010991028100147</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.9901004141569201</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.013126323824093</v>
+        <v>1.012817933852757</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.9904169399951884</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.009683240633828</v>
+        <v>1.009330950458727</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.9898008166256231</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.009051569775603</v>
+        <v>1.008780383475794</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.9896877030090713</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.01350184171082</v>
+        <v>1.01314101492194</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.9904828695235574</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.012032322626116</v>
+        <v>1.011897402880057</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.9902244780967917</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.01237370481417</v>
+        <v>1.012211990396122</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.9902849633296185</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.017308271630269</v>
+        <v>1.017212088202596</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.9911544271244076</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.016866449285442</v>
+        <v>1.016729011296528</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.9910769365810513</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.013535799069268</v>
+        <v>1.0133481651278</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0.9904909535155698</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.0192287688823</v>
+        <v>1.019037182411017</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0.9914861383315418</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.015114319040699</v>
+        <v>1.015006048368966</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.9907704308705598</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.01867833644947</v>
+        <v>1.018620320446562</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0.9913926529649552</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.021671848541385</v>
+        <v>1.021598866539365</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0.9919067456830313</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.018542983176824</v>
+        <v>1.018316218084495</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0.9913671906347648</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.019104823096455</v>
+        <v>1.019091851773885</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0.9914669061382723</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.017147809201492</v>
+        <v>1.017004883890529</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0.9911259189884875</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.014131032458129</v>
+        <v>1.01395375497557</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0.9905963350681278</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.019667836019776</v>
+        <v>1.019646276849827</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0.9915638831572159</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.019016518752536</v>
+        <v>1.01877620003291</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0.9914489064424683</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02296821508687</v>
+        <v>1.022629388485163</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0.9921239740837967</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.021997107563916</v>
+        <v>1.02151929768135</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0.9919572635420604</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.019109566166597</v>
+        <v>1.018367535370233</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0.9914589073606147</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.01892533328323</v>
+        <v>1.018147694045198</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0.9914266585055711</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.021044054131984</v>
+        <v>1.02002285328684</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0.9917879794983666</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.020543060611322</v>
+        <v>1.019038377534138</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0.9916963145682232</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.015014014008846</v>
+        <v>1.013212218489893</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0.990732459530384</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.010504908372499</v>
+        <v>1.008747996359514</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0.9899252235062828</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.020922724853037</v>
+        <v>1.018725745229547</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0.9917529712211286</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.024095156177285</v>
+        <v>1.021745200722731</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0.99228998131809</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.025734148862476</v>
+        <v>1.023220195322612</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0.9925631687042411</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.025049141060463</v>
+        <v>1.022393436107859</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0.9924466943343347</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.029266836426952</v>
+        <v>1.026460782421807</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0.9931452138913285</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.035674741842402</v>
+        <v>1.032939482654796</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0.9941818424166522</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.041658700411124</v>
+        <v>1.038994047583758</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0.980774509070679</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.042876094844646</v>
+        <v>1.040130555594179</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0.9809612496729627</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.049910189814773</v>
+        <v>1.047246820073662</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0.9820204035295883</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -814,10 +814,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.053839497421139</v>
+        <v>1.043562061612561</v>
       </c>
       <c r="C40">
-        <v>0.99726449869165</v>
+        <v>0.9825927532791483</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -825,10 +825,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.059582174674209</v>
+        <v>1.048135709144027</v>
       </c>
       <c r="C41">
-        <v>0.9981373953724488</v>
+        <v>0.9834002815152297</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -836,10 +836,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.065397088314609</v>
+        <v>1.052720385208014</v>
       </c>
       <c r="C42">
-        <v>0.9990170192493241</v>
+        <v>0.9702643928543769</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -847,10 +847,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.070040419628437</v>
+        <v>1.056414908814849</v>
       </c>
       <c r="C43">
-        <v>0.9853326709792942</v>
+        <v>0.9708645302566518</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -858,10 +858,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.079864556133049</v>
+        <v>1.064147550646563</v>
       </c>
       <c r="C44">
-        <v>0.9866780889364376</v>
+        <v>0.972061728563573</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -869,10 +869,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.075977531042181</v>
+        <v>1.061104854102636</v>
       </c>
       <c r="C45">
-        <v>0.986149556156068</v>
+        <v>0.9715997958899221</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -880,10 +880,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.081006759666337</v>
+        <v>1.065034953143326</v>
       </c>
       <c r="C46">
-        <v>0.9729041358077785</v>
+        <v>0.9721946570965051</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -891,10 +891,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.078762811656902</v>
+        <v>1.063310267089827</v>
       </c>
       <c r="C47">
-        <v>0.9725864029214457</v>
+        <v>0.9719309196473562</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -902,10 +902,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.08536607320849</v>
+        <v>1.06850062385793</v>
       </c>
       <c r="C48">
-        <v>0.9724942036677771</v>
+        <v>0.9724942036677425</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -913,10 +913,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.078957158204593</v>
+        <v>1.06347712509795</v>
       </c>
       <c r="C49">
-        <v>0.9726030941199439</v>
+        <v>0.9719528716930909</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -924,10 +924,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.081025859437304</v>
+        <v>1.06509998421249</v>
       </c>
       <c r="C50">
-        <v>0.9728753087232135</v>
+        <v>0.972193659179339</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -935,10 +935,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.081264520964798</v>
+        <v>1.065330225236943</v>
       </c>
       <c r="C51">
-        <v>0.9728794128446319</v>
+        <v>0.9722183743294518</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -946,10 +946,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.072490675192457</v>
+        <v>1.058415203394415</v>
       </c>
       <c r="C52">
-        <v>0.9717071684510525</v>
+        <v>0.9711685819481495</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -957,10 +957,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.074128312618785</v>
+        <v>1.059703590258865</v>
       </c>
       <c r="C53">
-        <v>0.971935232749562</v>
+        <v>0.9713711818813388</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -968,10 +968,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.071861247839065</v>
+        <v>1.057908971504242</v>
       </c>
       <c r="C54">
-        <v>0.9716260009561817</v>
+        <v>0.9710906255131143</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -979,10 +979,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.069520513996591</v>
+        <v>1.056081143436797</v>
       </c>
       <c r="C55">
-        <v>0.9712826069964355</v>
+        <v>0.9707934622664186</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -990,10 +990,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.066814269051691</v>
+        <v>1.053910323639617</v>
       </c>
       <c r="C56">
-        <v>0.9709164042957766</v>
+        <v>0.9704461125024985</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1001,10 +1001,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.068401840041741</v>
+        <v>1.055149169185788</v>
       </c>
       <c r="C57">
-        <v>0.9711561774199082</v>
+        <v>0.9706530163214199</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1012,10 +1012,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.062811103454889</v>
+        <v>1.050709063489213</v>
       </c>
       <c r="C58">
-        <v>0.9703519581910927</v>
+        <v>0.9699172672403673</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1023,10 +1023,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.062575441934751</v>
+        <v>1.05049929042013</v>
       </c>
       <c r="C59">
-        <v>0.9703334274443287</v>
+        <v>0.9698869319947211</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1034,10 +1034,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.059450364856232</v>
+        <v>1.047971353518604</v>
       </c>
       <c r="C60">
-        <v>0.9699001759389178</v>
+        <v>0.9694632998753923</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1045,10 +1045,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.055601724574034</v>
+        <v>1.044933213667099</v>
       </c>
       <c r="C61">
-        <v>0.9692958735903536</v>
+        <v>0.9689229318971372</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1056,10 +1056,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.055554250217319</v>
+        <v>1.044848843575464</v>
       </c>
       <c r="C62">
-        <v>0.9693233873234383</v>
+        <v>0.9693233873234745</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1067,10 +1067,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.049801436398423</v>
+        <v>1.040231273970692</v>
       </c>
       <c r="C63">
-        <v>0.9684455145129164</v>
+        <v>0.9684455145129298</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1078,10 +1078,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.053530618294995</v>
+        <v>1.043186498838929</v>
       </c>
       <c r="C64">
-        <v>0.9690475758523694</v>
+        <v>0.969047575852344</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1089,10 +1089,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.047965834219889</v>
+        <v>1.038734976089804</v>
       </c>
       <c r="C65">
-        <v>0.9681755139479409</v>
+        <v>0.9681755139479843</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1100,10 +1100,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1.041396258728106</v>
+        <v>1.033467174262041</v>
       </c>
       <c r="C66">
-        <v>0.9671110740623562</v>
+        <v>0.9671110740624174</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1111,10 +1111,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1.034859445704031</v>
+        <v>1.028234760106405</v>
       </c>
       <c r="C67">
-        <v>0.9659975708414839</v>
+        <v>0.965997570841489</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1122,10 +1122,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1.028813138758389</v>
+        <v>1.023411726808096</v>
       </c>
       <c r="C68">
-        <v>0.9649120856610236</v>
+        <v>0.9649120856610174</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1133,10 +1133,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.024472803244382</v>
+        <v>1.01997441394671</v>
       </c>
       <c r="C69">
-        <v>0.9640864949948047</v>
+        <v>0.964086494994707</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1144,10 +1144,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1.011693206618501</v>
+        <v>1.009699219004773</v>
       </c>
       <c r="C70">
-        <v>0.9616688881380332</v>
+        <v>0.9616688881380294</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1155,10 +1155,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1.008060708532939</v>
+        <v>1.006785472068805</v>
       </c>
       <c r="C71">
-        <v>0.9609367066062727</v>
+        <v>0.9609367066062735</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1166,10 +1166,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1.002286857854629</v>
+        <v>1.001422276399751</v>
       </c>
       <c r="C72">
-        <v>0.9503315559884877</v>
+        <v>0.9503315559885822</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1180,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="C73">
-        <v>0.9511079026890468</v>
+        <v>0.9511079026890011</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1191,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <v>0.9635033387106801</v>
+        <v>0.9635033387107251</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="C75">
-        <v>0.9532832715443758</v>
+        <v>0.9532832715443531</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1210,10 +1210,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>1.010046127485239</v>
       </c>
       <c r="C76">
-        <v>0.9550138306157754</v>
+        <v>0.9550138306159264</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1.007416850291466</v>
+        <v>1.00833822288053</v>
       </c>
       <c r="C77">
-        <v>0.9500872940971289</v>
+        <v>0.9595654847210334</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1232,10 +1232,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1.004863169447066</v>
+        <v>1.022012370039675</v>
       </c>
       <c r="C78">
-        <v>0.9389887080061401</v>
+        <v>0.9509317536757179</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1243,10 +1243,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1.006019311400936</v>
+        <v>1.023082272022184</v>
       </c>
       <c r="C79">
-        <v>0.9440817013945674</v>
+        <v>0.9548826630984063</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1254,10 +1254,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1.00492121964795</v>
+        <v>1.022067359901442</v>
       </c>
       <c r="C80">
-        <v>0.9392493286083797</v>
+        <v>0.9511333468107068</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1265,10 +1265,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1.004464641471898</v>
+        <v>1.021693437200287</v>
       </c>
       <c r="C81">
-        <v>0.9374925007868268</v>
+        <v>0.9497559582270143</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1276,10 +1276,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1.018792252209487</v>
+        <v>1.01998388264342</v>
       </c>
       <c r="C82">
-        <v>0.929495008240706</v>
+        <v>0.9435733148244483</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1287,10 +1287,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1.020163665083597</v>
+        <v>1.021259957732667</v>
       </c>
       <c r="C83">
-        <v>0.9354432637443666</v>
+        <v>0.9481827023210622</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1298,10 +1298,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1.021990630409212</v>
+        <v>1.022983434091757</v>
       </c>
       <c r="C84">
-        <v>0.9436072516524119</v>
+        <v>0.9545165083048851</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1309,10 +1309,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1.021943694029372</v>
+        <v>1.022870125756273</v>
       </c>
       <c r="C85">
-        <v>0.9430501853442298</v>
+        <v>0.9541071302666856</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1320,10 +1320,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1.024291180776696</v>
+        <v>1.02507972588453</v>
       </c>
       <c r="C86">
-        <v>0.9537317212593646</v>
+        <v>0.9624194858937652</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1331,10 +1331,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1.023268988432416</v>
+        <v>1.023268988432442</v>
       </c>
       <c r="C87">
-        <v>0.9489637273156855</v>
+        <v>0.9587114783479617</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1342,10 +1342,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1.024225338785568</v>
+        <v>1.024944403920125</v>
       </c>
       <c r="C88">
-        <v>0.953051594600783</v>
+        <v>0.9619151672662435</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1353,10 +1353,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1.027177408535282</v>
+        <v>1.027177408535257</v>
       </c>
       <c r="C89">
-        <v>0.9668311642323392</v>
+        <v>0.9726764585414263</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1364,10 +1364,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1.026657366122383</v>
+        <v>1.026657366122365</v>
       </c>
       <c r="C90">
-        <v>0.964175413724681</v>
+        <v>0.9706128218357032</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1375,10 +1375,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1.028700362118413</v>
+        <v>1.028700362118335</v>
       </c>
       <c r="C91">
-        <v>0.9736394160517928</v>
+        <v>0.9780414462680139</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1386,10 +1386,10 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1.030815227882975</v>
+        <v>1.030815227882918</v>
       </c>
       <c r="C92">
-        <v>0.9839836011946372</v>
+        <v>0.9861587728548231</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1397,10 +1397,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1.03224927126092</v>
+        <v>1.032249271260825</v>
       </c>
       <c r="C93">
-        <v>0.9908916792845492</v>
+        <v>0.9908916792846053</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1408,10 +1408,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1.033126095511009</v>
+        <v>1.033126095510962</v>
       </c>
       <c r="C94">
-        <v>0.995013454377085</v>
+        <v>0.995013454377112</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1419,7 +1419,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1.034436977332859</v>
+        <v>1.034436977332892</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -1430,7 +1430,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1.037756504167929</v>
+        <v>1.037756504167976</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -1441,10 +1441,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1.042499488049006</v>
+        <v>1.042499488048749</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>0.9901872833033689</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1452,10 +1452,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1.038899090561542</v>
+        <v>1.038899090561654</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>0.9895113769522292</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1463,10 +1463,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1.042744521871381</v>
+        <v>1.042744521871575</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0.9902302441294295</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1474,10 +1474,10 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1.042875350530687</v>
+        <v>1.04287535053057</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>0.9902253285700778</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1485,10 +1485,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1.046893914905481</v>
+        <v>1.046893914905439</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0.990957603355262</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1496,10 +1496,10 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1.042637983670565</v>
+        <v>1.042637983670474</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>0.9901652481915054</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1507,10 +1507,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1.046289783558397</v>
+        <v>1.046289783558439</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>0.9908559236972021</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1518,10 +1518,10 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1.044706308197092</v>
+        <v>1.044706308197154</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>0.9905811966357996</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1529,10 +1529,10 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1.047910790023717</v>
+        <v>1.047910790023652</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>0.9911248518535219</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1540,10 +1540,10 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1.045349252127371</v>
+        <v>1.045349252127375</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>0.9906586709382587</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1551,10 +1551,10 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1.046417957022881</v>
+        <v>1.046417957022812</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>0.9908543425116737</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1562,10 +1562,10 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1.048479977273465</v>
+        <v>1.048479977273361</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>0.9912458336803972</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1573,10 +1573,10 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1.03483955771115</v>
+        <v>1.034839557710981</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>0.991585913314461</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1584,10 +1584,10 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1.032371694892348</v>
+        <v>1.032371694892475</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>0.9911545602093956</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1595,10 +1595,10 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1.03399319300963</v>
+        <v>1.033993193009474</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>0.9914180262543704</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1606,10 +1606,10 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1.03214328286228</v>
+        <v>1.032143282862033</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>0.9910877163072938</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1617,10 +1617,10 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1.029045100153087</v>
+        <v>1.029045100153039</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>0.9905557048035564</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1628,10 +1628,10 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1.028468104222515</v>
+        <v>1.02846810422247</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>0.990454365556211</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1639,10 +1639,10 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1.029925786206759</v>
+        <v>1.029925786206613</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>0.9907160932451775</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1650,10 +1650,10 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>1.034984223936222</v>
+        <v>1.034984223936218</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>0.9915926745841631</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>1.032562793128211</v>
+        <v>1.032562793128102</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0.9911823744016204</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1672,10 +1672,10 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1.036216317938715</v>
+        <v>1.036216317938588</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>0.9918217161672671</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1683,10 +1683,10 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1.037241941213763</v>
+        <v>1.037241941213926</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>0.992054235357706</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1694,10 +1694,10 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1.037105206001151</v>
+        <v>1.037105206001177</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>0.9920292478978981</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1705,10 +1705,10 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1.035344178666206</v>
+        <v>1.03534417866613</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>0.9917452318133779</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1716,10 +1716,10 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>1.034787798600838</v>
+        <v>1.034787798600774</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>0.9916855564242621</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1727,10 +1727,10 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1.037596302500436</v>
+        <v>1.037596302500483</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>0.9922176718090338</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1738,10 +1738,10 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>1.030442744732925</v>
+        <v>1.0304427447327</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>0.9910077072560534</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1749,10 +1749,10 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1.032904917776324</v>
+        <v>1.032904917776448</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>0.9914772549801523</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1760,10 +1760,10 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>1.026325472661435</v>
+        <v>1.026325472661441</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>0.9903886820496983</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1771,10 +1771,10 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1.032225823594361</v>
+        <v>1.032225823594415</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>0.9914673763064015</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1782,10 +1782,10 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>1.032738538771809</v>
+        <v>1.032738538771751</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>0.9915645601952947</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1793,10 +1793,10 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1.035146706216617</v>
+        <v>1.035146706216766</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>0.9920142398249677</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1804,10 +1804,10 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1.03761572227697</v>
+        <v>1.037615722277056</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>0.9924782157258355</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1815,10 +1815,10 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>1.039552566985645</v>
+        <v>1.03955256698558</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>0.9928147340139872</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1826,10 +1826,10 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>1.04870366268212</v>
+        <v>1.048703662681874</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>0.9943072811231911</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1837,10 +1837,10 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>1.049104052364867</v>
+        <v>1.049104052364849</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>0.9800197272868306</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1848,10 +1848,10 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1.047465291841622</v>
+        <v>1.044781105521493</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>0.9816575910293168</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1859,10 +1859,10 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1.054068052292937</v>
+        <v>1.043754034950194</v>
       </c>
       <c r="C135">
-        <v>0.9972924632740293</v>
+        <v>0.9826249055098718</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1870,10 +1870,10 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1.057000101133552</v>
+        <v>1.04610418180463</v>
       </c>
       <c r="C136">
-        <v>0.9977309648710703</v>
+        <v>0.9830396831062924</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1881,10 +1881,10 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>1.059655292662788</v>
+        <v>1.048185039326203</v>
       </c>
       <c r="C137">
-        <v>0.998154746851451</v>
+        <v>0.9834108987595009</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1892,10 +1892,10 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1.069269421340041</v>
+        <v>1.055794507559043</v>
       </c>
       <c r="C138">
-        <v>0.9852311535363333</v>
+        <v>0.9707669307514514</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1903,10 +1903,10 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1.07318230569537</v>
+        <v>1.05887860463422</v>
       </c>
       <c r="C139">
-        <v>0.9857825640023349</v>
+        <v>0.9712596145344252</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1914,10 +1914,10 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1.076755102671916</v>
+        <v>1.061715599470975</v>
       </c>
       <c r="C140">
-        <v>0.9862555431963055</v>
+        <v>0.9716934250948006</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1925,10 +1925,10 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1.077779724545065</v>
+        <v>1.062492571193438</v>
       </c>
       <c r="C141">
-        <v>0.9864119242486957</v>
+        <v>0.971817540526635</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1936,10 +1936,10 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1.081985250947865</v>
+        <v>1.065803973654349</v>
       </c>
       <c r="C142">
-        <v>0.9726027296930897</v>
+        <v>0.9723067904004254</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1947,10 +1947,10 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1.082606260926355</v>
+        <v>1.066317445116954</v>
       </c>
       <c r="C143">
-        <v>0.972645335651149</v>
+        <v>0.9723757628329857</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1958,10 +1958,10 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>1.078129224578595</v>
+        <v>1.062825650359117</v>
       </c>
       <c r="C144">
-        <v>0.9724937722445617</v>
+        <v>0.971855275084852</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1969,10 +1969,10 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1.083243143068633</v>
+        <v>1.066858433072109</v>
       </c>
       <c r="C145">
-        <v>0.9726643208316963</v>
+        <v>0.9724451131154962</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1980,10 +1980,10 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>1.079649563789397</v>
+        <v>1.06403370113535</v>
       </c>
       <c r="C146">
-        <v>0.9726863692085411</v>
+        <v>0.9720331490448957</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1991,10 +1991,10 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>1.077098477982233</v>
+        <v>1.06203404762405</v>
       </c>
       <c r="C147">
-        <v>0.9723437951394907</v>
+        <v>0.971731456525988</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2002,10 +2002,10 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1.07478372290518</v>
+        <v>1.060231128270002</v>
       </c>
       <c r="C148">
-        <v>0.9720176562046069</v>
+        <v>0.9714506812931654</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2013,10 +2013,10 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1.07484683143555</v>
+        <v>1.060252148758811</v>
       </c>
       <c r="C149">
-        <v>0.9720451840391202</v>
+        <v>0.9714601996753801</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2024,10 +2024,10 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>1.073307818769886</v>
+        <v>1.059039353143536</v>
       </c>
       <c r="C150">
-        <v>0.9718338928556811</v>
+        <v>0.9712712292042062</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2035,10 +2035,10 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>1.072941344430313</v>
+        <v>1.05876542458309</v>
       </c>
       <c r="C151">
-        <v>0.9717731854535745</v>
+        <v>0.9712249052058596</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2046,10 +2046,10 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>1.068860508026446</v>
+        <v>1.055515544384739</v>
       </c>
       <c r="C152">
-        <v>0.9712189860302104</v>
+        <v>0.9707117559893991</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2057,10 +2057,10 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>1.063380538637378</v>
+        <v>1.051172422790312</v>
       </c>
       <c r="C153">
-        <v>0.9704276995416157</v>
+        <v>0.9699930354051329</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2068,10 +2068,10 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>1.065001022251056</v>
+        <v>1.052430850442321</v>
       </c>
       <c r="C154">
-        <v>0.9706838800771878</v>
+        <v>0.9702105298808403</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2079,10 +2079,10 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>1.066306994618874</v>
+        <v>1.053449313007268</v>
       </c>
       <c r="C155">
-        <v>0.9708846507127671</v>
+        <v>0.9703835134815352</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2090,10 +2090,10 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>1.05620174220658</v>
+        <v>1.045419219921478</v>
       </c>
       <c r="C156">
-        <v>0.9693821011099578</v>
+        <v>0.969007421966313</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2101,10 +2101,10 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>1.059619411423266</v>
+        <v>1.048091822749486</v>
       </c>
       <c r="C157">
-        <v>0.9699357506580435</v>
+        <v>0.9699357506580656</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2112,10 +2112,10 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1.053686575563354</v>
+        <v>1.043354515420508</v>
       </c>
       <c r="C158">
-        <v>0.9690388418440123</v>
+        <v>0.9686524625698287</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2123,10 +2123,10 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>1.049196053927216</v>
+        <v>1.039782837104519</v>
       </c>
       <c r="C159">
-        <v>0.9683218992074177</v>
+        <v>0.9683218992074484</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2134,10 +2134,10 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1.050252325138401</v>
+        <v>1.040560350874247</v>
       </c>
       <c r="C160">
-        <v>0.9685409455757443</v>
+        <v>0.9685409455757125</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2145,10 +2145,10 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>1.046247368304473</v>
+        <v>1.037335773145062</v>
       </c>
       <c r="C161">
-        <v>0.967918412015893</v>
+        <v>0.9679184120158673</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2156,10 +2156,10 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>1.046583646621221</v>
+        <v>1.037608640600468</v>
       </c>
       <c r="C162">
-        <v>0.9679696921619213</v>
+        <v>0.9679696921618517</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2167,10 +2167,10 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>1.03874806071894</v>
+        <v>1.031337712979838</v>
       </c>
       <c r="C163">
-        <v>0.9666735504043926</v>
+        <v>0.966673550404313</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2178,10 +2178,10 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>1.030770446897347</v>
+        <v>1.024997706936783</v>
       </c>
       <c r="C164">
-        <v>0.9652467312560717</v>
+        <v>0.9652467312560249</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2189,10 +2189,10 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>1.025864255611206</v>
+        <v>1.021053482679045</v>
       </c>
       <c r="C165">
-        <v>0.9643735415696205</v>
+        <v>0.9643735415695542</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2200,10 +2200,10 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>1.017112840174869</v>
+        <v>1.014072358035359</v>
       </c>
       <c r="C166">
-        <v>0.9627060101861322</v>
+        <v>0.9627060101861606</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2211,10 +2211,10 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>1.004435978255917</v>
+        <v>1.003784324857011</v>
       </c>
       <c r="C167">
-        <v>0.9584553386953907</v>
+        <v>0.9584553386951821</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2222,10 +2222,10 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>1.002342463715723</v>
+        <v>1.002342463715752</v>
       </c>
       <c r="C168">
-        <v>0.950869607279705</v>
+        <v>0.9508696072796572</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2233,10 +2233,10 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>1.000008344693038</v>
+        <v>1.000008344692961</v>
       </c>
       <c r="C169">
-        <v>0.9522552838625136</v>
+        <v>0.9522552838627911</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2247,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="C170">
-        <v>0.9599179992828883</v>
+        <v>0.9599179992829829</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2255,10 +2255,10 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>1.012098490564767</v>
       </c>
       <c r="C171">
-        <v>0.9653240701207692</v>
+        <v>0.9653240701208845</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2266,10 +2266,10 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>1.010331560173325</v>
       </c>
       <c r="C172">
-        <v>0.9564571128693818</v>
+        <v>0.9564571128694839</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2277,10 +2277,10 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>1.009288364890052</v>
       </c>
       <c r="C173">
-        <v>0.9511077439459229</v>
+        <v>0.9511077439460229</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2288,10 +2288,10 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>1.006567544855721</v>
+        <v>1.007596083665475</v>
       </c>
       <c r="C174">
-        <v>0.9466044496612595</v>
+        <v>0.9568363053084036</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2299,10 +2299,10 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>1.004889859884712</v>
+        <v>1.02202978888849</v>
       </c>
       <c r="C175">
-        <v>0.9390695666116898</v>
+        <v>0.9509968354876593</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2310,10 +2310,10 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>1.004623126754798</v>
+        <v>1.021820066434365</v>
       </c>
       <c r="C176">
-        <v>0.9380859314395947</v>
+        <v>0.9502222971271634</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2321,10 +2321,10 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>1.00444048848084</v>
+        <v>1.021645851640846</v>
       </c>
       <c r="C177">
-        <v>0.9372626264327766</v>
+        <v>0.9495861864064288</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2332,10 +2332,10 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>1.019033212311719</v>
+        <v>1.020223490532793</v>
       </c>
       <c r="C178">
-        <v>0.9306094344463184</v>
+        <v>0.9444310628742041</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2343,10 +2343,10 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>1.021380570701659</v>
+        <v>1.022420290255063</v>
       </c>
       <c r="C179">
-        <v>0.9409259141202081</v>
+        <v>0.9524302558907614</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2354,10 +2354,10 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>1.020367680003094</v>
+        <v>1.021430316919749</v>
       </c>
       <c r="C180">
-        <v>0.9362388912991535</v>
+        <v>0.94880652272139</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2365,10 +2365,10 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>1.021425694999515</v>
+        <v>1.022411665083072</v>
       </c>
       <c r="C181">
-        <v>0.9408734895569725</v>
+        <v>0.9524067474493055</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2376,10 +2376,10 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>1.023605199101572</v>
+        <v>1.024416658930478</v>
       </c>
       <c r="C182">
-        <v>0.9504934296734759</v>
+        <v>0.9599027420600169</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2387,10 +2387,10 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>1.024277758448799</v>
+        <v>1.025035574851655</v>
       </c>
       <c r="C183">
-        <v>0.9535078139788877</v>
+        <v>0.9622560411494399</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2398,10 +2398,10 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>1.025443822857449</v>
+        <v>1.025443822857497</v>
       </c>
       <c r="C184">
-        <v>0.9587688823415598</v>
+        <v>0.9663694321018551</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2409,10 +2409,10 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>1.025410227781353</v>
+        <v>1.025410227781398</v>
       </c>
       <c r="C185">
-        <v>0.9584391010041212</v>
+        <v>0.9661239094560343</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2420,10 +2420,10 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>1.027299716620995</v>
+        <v>1.027299716620932</v>
       </c>
       <c r="C186">
-        <v>0.9670985900433869</v>
+        <v>0.9729074249306039</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2431,10 +2431,10 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>1.029411677590822</v>
+        <v>1.029411677590836</v>
       </c>
       <c r="C187">
-        <v>0.9772941161949078</v>
+        <v>0.9808927713046744</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2442,10 +2442,10 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>1.030228322330665</v>
+        <v>1.030228322330613</v>
       </c>
       <c r="C188">
-        <v>0.981135811783291</v>
+        <v>0.9839186191921168</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2453,10 +2453,10 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>1.031163423912297</v>
+        <v>1.031163423912296</v>
       </c>
       <c r="C189">
-        <v>0.9854585769667572</v>
+        <v>0.9854585769667341</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2464,10 +2464,10 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>1.032269328550836</v>
+        <v>1.032269328550861</v>
       </c>
       <c r="C190">
-        <v>0.9907732888081136</v>
+        <v>0.9907732888080442</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2475,10 +2475,10 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>1.03402675638123</v>
+        <v>1.034026756381327</v>
       </c>
       <c r="C191">
-        <v>0.998750501126778</v>
+        <v>0.9987505011268337</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2486,7 +2486,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>1.036531853850832</v>
+        <v>1.03653185385078</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -2497,7 +2497,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>1.040894564934614</v>
+        <v>1.040894564934738</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -2508,10 +2508,10 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>1.040405813884159</v>
+        <v>1.040405813884005</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>0.9897833516410316</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2519,10 +2519,10 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>1.041193362393523</v>
+        <v>1.041193362393514</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>0.9899250768959129</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2530,10 +2530,10 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>1.039196725475995</v>
+        <v>1.039196725476217</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>0.9895678744458385</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2541,10 +2541,10 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>1.04145084941598</v>
+        <v>1.041450849415943</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>0.9899687818006949</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2552,10 +2552,10 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>1.043518349138866</v>
+        <v>1.043518349139009</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>0.9903482439113623</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2563,10 +2563,10 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>1.046123083382421</v>
+        <v>1.046123083382604</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>0.9908070165380318</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2574,10 +2574,10 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>1.04333616220286</v>
+        <v>1.043336162202869</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>0.9903153621078735</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2585,10 +2585,10 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>1.044178863879214</v>
+        <v>1.044178863879365</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>0.9904475367440633</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2596,10 +2596,10 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>1.04486439884287</v>
+        <v>1.044864398842815</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>0.99058448118146</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2607,10 +2607,10 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>1.042747590697946</v>
+        <v>1.042747590697956</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>0.9901856692061399</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2618,10 +2618,10 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>1.047242029828141</v>
+        <v>1.047242029827975</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>0.9910060996578534</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2629,10 +2629,10 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>1.048799642319591</v>
+        <v>1.048799642319736</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>0.9912808675337852</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2640,10 +2640,10 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>1.035009807716135</v>
+        <v>1.035009807715994</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>0.9916160613637232</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2654,7 +2654,7 @@
         <v>1.028960632575477</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>0.9905485147887918</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2662,10 +2662,10 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>1.030965826422534</v>
+        <v>1.030965826422432</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>0.9909187696267774</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2673,10 +2673,10 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>1.034420435342108</v>
+        <v>1.034420435342222</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>0.991497499079714</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2684,10 +2684,10 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>1.035468730063846</v>
+        <v>1.035468730063911</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>0.9916885097877772</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2695,10 +2695,10 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>1.031827554011049</v>
+        <v>1.031827554011215</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>0.9910609086809217</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2706,10 +2706,10 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>1.032995357364313</v>
+        <v>1.032995357364232</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>0.9912834813692551</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2717,10 +2717,10 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>1.040509731608815</v>
+        <v>1.040509731608942</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>0.9925556010290639</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2728,10 +2728,10 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>1.037092347170627</v>
+        <v>1.037092347170868</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>0.9919658091958926</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2739,10 +2739,10 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>1.036334362203639</v>
+        <v>1.03633436220357</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>0.9918801971131653</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2750,10 +2750,10 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>1.039798539145486</v>
+        <v>1.039798539145446</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>0.9924948244750303</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2761,10 +2761,10 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>1.038283673345211</v>
+        <v>1.038283673345178</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>0.9922723613913139</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2772,10 +2772,10 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>1.033890648230886</v>
+        <v>1.033890648230899</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>0.9915341622897046</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2783,10 +2783,10 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>1.031859642754269</v>
+        <v>1.031859642754175</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>0.9912230858976662</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2794,10 +2794,10 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>1.033501556243476</v>
+        <v>1.033501556243361</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>0.9915748517726212</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2805,10 +2805,10 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>1.02979387595527</v>
+        <v>1.029793875955228</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>0.9909336692120999</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2816,10 +2816,10 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>1.030371480450335</v>
+        <v>1.030371480450331</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>0.991106979516051</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2827,10 +2827,10 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>1.030852503595502</v>
+        <v>1.030852503595497</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>0.9912214576807878</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2838,10 +2838,10 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>1.031119180628715</v>
+        <v>1.031119180628829</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>0.9912902123758531</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2849,10 +2849,10 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>1.035166118117408</v>
+        <v>1.035166118117518</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>0.9920465011409584</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2860,10 +2860,10 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>1.037927370126663</v>
+        <v>1.03792737012704</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>0.9925257218379421</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2871,10 +2871,10 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>1.036354347073545</v>
+        <v>1.036354347073478</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>0.9922644464686228</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2882,10 +2882,10 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>1.048883427507349</v>
+        <v>1.04888342750727</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>0.9943313729636967</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2893,10 +2893,10 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>1.042644299210201</v>
+        <v>1.040018130903667</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>0.9809271290979438</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2904,10 +2904,10 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>1.04795506806144</v>
+        <v>1.045355629889676</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>0.9817317613008588</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2915,10 +2915,10 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>1.05115233626294</v>
+        <v>1.048486374225737</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>0.98220240682766</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2926,10 +2926,10 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>1.059121394378697</v>
+        <v>1.047759101378732</v>
       </c>
       <c r="C232">
-        <v>0.9980757013472134</v>
+        <v>0.9833372751413442</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2937,10 +2937,10 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>1.060982055797762</v>
+        <v>1.049228968229565</v>
       </c>
       <c r="C233">
-        <v>0.9983603218293915</v>
+        <v>0.9696710625009081</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2948,10 +2948,10 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>1.068216686115281</v>
+        <v>1.054942623600192</v>
       </c>
       <c r="C234">
-        <v>0.9850947695636106</v>
+        <v>0.970632923855565</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2959,10 +2959,10 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>1.071576328786346</v>
+        <v>1.0575987884675</v>
       </c>
       <c r="C235">
-        <v>0.9855680084107847</v>
+        <v>0.9710603088440922</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2970,10 +2970,10 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>1.073869612841022</v>
+        <v>1.05943716925008</v>
       </c>
       <c r="C236">
-        <v>0.9858662640735837</v>
+        <v>0.9713433565251008</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2981,10 +2981,10 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>1.082111685736719</v>
+        <v>1.065926800488125</v>
       </c>
       <c r="C237">
-        <v>0.9725804492166364</v>
+        <v>0.9723196985512649</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2992,10 +2992,10 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>1.080123855458108</v>
+        <v>1.064346806532201</v>
       </c>
       <c r="C238">
-        <v>0.9727860641571686</v>
+        <v>0.9720921756732072</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3003,10 +3003,10 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>1.077309251465503</v>
+        <v>1.062164484918581</v>
       </c>
       <c r="C239">
-        <v>0.9723948892387059</v>
+        <v>0.9717588723645593</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3014,10 +3014,10 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>1.081676287151095</v>
+        <v>1.065625150414409</v>
       </c>
       <c r="C240">
-        <v>0.9729503846102839</v>
+        <v>0.9722674073331967</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3025,10 +3025,10 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>1.079738534834242</v>
+        <v>1.064105672892773</v>
       </c>
       <c r="C241">
-        <v>0.9726967407946365</v>
+        <v>0.9720433959314939</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3036,10 +3036,10 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>1.079395903970901</v>
+        <v>1.063836576414583</v>
       </c>
       <c r="C242">
-        <v>0.9726516238753732</v>
+        <v>0.9720033705668758</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3047,10 +3047,10 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>1.077058019456042</v>
+        <v>1.061993962139584</v>
       </c>
       <c r="C243">
-        <v>0.9723437098409288</v>
+        <v>0.9717271456106713</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3058,10 +3058,10 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>1.076092643457538</v>
+        <v>1.061273319257288</v>
       </c>
       <c r="C244">
-        <v>0.9721881909162088</v>
+        <v>0.9716087409486306</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3069,10 +3069,10 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>1.071604871249736</v>
+        <v>1.057714163827971</v>
       </c>
       <c r="C245">
-        <v>0.971585120422868</v>
+        <v>0.9710580285375167</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3080,10 +3080,10 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>1.07544930430671</v>
+        <v>1.060760409428433</v>
       </c>
       <c r="C246">
-        <v>0.9721050781798971</v>
+        <v>0.9715313348632736</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3091,10 +3091,10 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>1.071415312773595</v>
+        <v>1.057573865580505</v>
       </c>
       <c r="C247">
-        <v>0.971552297709978</v>
+        <v>0.9710336450889704</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3102,10 +3102,10 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>1.070408773798236</v>
+        <v>1.056744816356069</v>
       </c>
       <c r="C248">
-        <v>0.9714342000840616</v>
+        <v>0.9709088195920967</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3113,10 +3113,10 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>1.067857752546699</v>
+        <v>1.054698215945415</v>
       </c>
       <c r="C249">
-        <v>0.9710926564331077</v>
+        <v>0.970584068671742</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3124,10 +3124,10 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>1.063693936287952</v>
+        <v>1.051414204744594</v>
       </c>
       <c r="C250">
-        <v>0.9704786694368386</v>
+        <v>0.9700354147581872</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3135,10 +3135,10 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>1.061208621003791</v>
+        <v>1.049416068842965</v>
       </c>
       <c r="C251">
-        <v>0.9701290355742193</v>
+        <v>0.9697015177637838</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3146,10 +3146,10 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>1.060340649046063</v>
+        <v>1.048721994305395</v>
       </c>
       <c r="C252">
-        <v>0.9700025432682726</v>
+        <v>0.9695831400069937</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3157,10 +3157,10 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>1.056417200200172</v>
+        <v>1.04554202230319</v>
       </c>
       <c r="C253">
-        <v>0.9694514705133381</v>
+        <v>0.9690408613802775</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3168,10 +3168,10 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>1.055884534896657</v>
+        <v>1.045127756967734</v>
       </c>
       <c r="C254">
-        <v>0.9693623558335052</v>
+        <v>0.9693623558334584</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3179,10 +3179,10 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>1.051612046493969</v>
+        <v>1.041679914020196</v>
       </c>
       <c r="C255">
-        <v>0.9687293830316306</v>
+        <v>0.9687293830316365</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3190,10 +3190,10 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>1.048429632948775</v>
+        <v>1.039139337643983</v>
       </c>
       <c r="C256">
-        <v>0.9682235838980403</v>
+        <v>0.9682235838979749</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3201,10 +3201,10 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>1.050162889754331</v>
+        <v>1.040481654461789</v>
       </c>
       <c r="C257">
-        <v>0.9685323831728759</v>
+        <v>0.9685323831728978</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3212,10 +3212,10 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>1.045331455807543</v>
+        <v>1.036587773301491</v>
       </c>
       <c r="C258">
-        <v>0.9677819450028078</v>
+        <v>0.9677819450028005</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3223,10 +3223,10 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>1.039844137993698</v>
+        <v>1.032230742725295</v>
       </c>
       <c r="C259">
-        <v>0.9668460429128546</v>
+        <v>0.9668460429128248</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3234,10 +3234,10 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>1.026467628616376</v>
+        <v>1.021555961821514</v>
       </c>
       <c r="C260">
-        <v>0.9644670286252572</v>
+        <v>0.9644670286252257</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3245,10 +3245,10 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>1.021929346990976</v>
+        <v>1.017923214059828</v>
       </c>
       <c r="C261">
-        <v>0.9636259671135227</v>
+        <v>0.963625967113538</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3256,10 +3256,10 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>1.013221954359858</v>
+        <v>1.010912398551246</v>
       </c>
       <c r="C262">
-        <v>0.9619853927750686</v>
+        <v>0.9619853927750797</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3267,10 +3267,10 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>1.006570611543149</v>
+        <v>1.005568787092751</v>
       </c>
       <c r="C263">
-        <v>0.9606196376737247</v>
+        <v>0.9606196376737604</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3278,10 +3278,10 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>1.001989337322242</v>
+        <v>1.001989337322213</v>
       </c>
       <c r="C264">
-        <v>0.9629716297362796</v>
+        <v>0.9629716297361917</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3292,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="C265">
-        <v>0.9513404733770057</v>
+        <v>0.9513404733771107</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3303,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="C266">
-        <v>0.962272381974522</v>
+        <v>0.9622723819746622</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3311,10 +3311,10 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>1</v>
+        <v>1.01271082696823</v>
       </c>
       <c r="C267">
-        <v>0.9527119403506652</v>
+        <v>0.9527119403503741</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3322,10 +3322,10 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>1</v>
+        <v>1.010470114395722</v>
       </c>
       <c r="C268">
-        <v>0.9570677255337436</v>
+        <v>0.9570677255334675</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3333,10 +3333,10 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>1.009857692889122</v>
       </c>
       <c r="C269">
-        <v>0.9540046948097123</v>
+        <v>0.9540046948096291</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3344,10 +3344,10 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>1.006021745766818</v>
+        <v>1.007048318459412</v>
       </c>
       <c r="C270">
-        <v>0.9440362019195772</v>
+        <v>0.9548511105087596</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3355,10 +3355,10 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>1.004809947454486</v>
+        <v>1.021966625155436</v>
       </c>
       <c r="C271">
-        <v>0.9387730150649989</v>
+        <v>0.950763419691943</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3366,10 +3366,10 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>1.004768522006177</v>
+        <v>1.021965924722649</v>
       </c>
       <c r="C272">
-        <v>0.9387779103304918</v>
+        <v>0.9507547849206874</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3377,10 +3377,10 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>1.004755015145316</v>
+        <v>1.021949357506775</v>
       </c>
       <c r="C273">
-        <v>0.9386986513293729</v>
+        <v>0.9506947032894822</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3388,10 +3388,10 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>1.004624033845442</v>
+        <v>1.02180726799331</v>
       </c>
       <c r="C274">
-        <v>0.9380225216735661</v>
+        <v>0.9501776595889033</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3399,10 +3399,10 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>1.005719308688094</v>
+        <v>1.022789154810645</v>
       </c>
       <c r="C275">
-        <v>0.9426770332025909</v>
+        <v>0.9537975052626768</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3410,10 +3410,10 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>1.006579140410029</v>
+        <v>1.023557937024972</v>
       </c>
       <c r="C276">
-        <v>0.9463554370104608</v>
+        <v>0.9566630171947847</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3421,10 +3421,10 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>1.005857734504821</v>
+        <v>1.022901152358606</v>
       </c>
       <c r="C277">
-        <v>0.943208236250256</v>
+        <v>0.954215191489292</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3432,10 +3432,10 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>1.008322429350339</v>
+        <v>1.02511809223979</v>
       </c>
       <c r="C278">
-        <v>0.9539197476579753</v>
+        <v>0.9625658840105192</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3443,10 +3443,10 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>1.008021134132533</v>
+        <v>1.008841674859294</v>
       </c>
       <c r="C279">
-        <v>0.9524613442497548</v>
+        <v>0.9614366154917617</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3454,10 +3454,10 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>1.009425530175284</v>
+        <v>1.026076645998959</v>
       </c>
       <c r="C280">
-        <v>0.9586296908276669</v>
+        <v>0.9662587166244653</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3465,10 +3465,10 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>1.009180770153766</v>
+        <v>1.009854278445194</v>
       </c>
       <c r="C281">
-        <v>0.9572933351256916</v>
+        <v>0.965231220914088</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3476,10 +3476,10 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>1.01066983349616</v>
+        <v>1.011239009195542</v>
       </c>
       <c r="C282">
-        <v>0.9640271225684997</v>
+        <v>0.9704957185254491</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3487,10 +3487,10 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>1.012540991979273</v>
+        <v>1.012951180772876</v>
       </c>
       <c r="C283">
-        <v>0.9725264648431586</v>
+        <v>0.9771631764009809</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3498,10 +3498,10 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>1.014636653690685</v>
+        <v>1.014864633660223</v>
       </c>
       <c r="C284">
-        <v>0.9822852535316222</v>
+        <v>0.9848356921117972</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3509,10 +3509,10 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>1.015926856057132</v>
+        <v>1.015926856057131</v>
       </c>
       <c r="C285">
-        <v>0.9885823126348888</v>
+        <v>0.9885823126351462</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3520,10 +3520,10 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>1.017923782476824</v>
+        <v>1.017923782476846</v>
       </c>
       <c r="C286">
-        <v>0.9974565360701868</v>
+        <v>0.9974565360702209</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3531,10 +3531,10 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>1.017963626038964</v>
+        <v>1.017963626038921</v>
       </c>
       <c r="C287">
-        <v>0.9976382308793299</v>
+        <v>0.9976382308792546</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3542,7 +3542,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>1.01862711159163</v>
+        <v>1.018627111591654</v>
       </c>
       <c r="C288">
         <v>1</v>
@@ -3553,7 +3553,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>1.022193320240138</v>
+        <v>1.022193320240243</v>
       </c>
       <c r="C289">
         <v>1</v>
@@ -3564,10 +3564,10 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>1.031464093669147</v>
+        <v>1.031464093669132</v>
       </c>
       <c r="C290">
-        <v>1</v>
+        <v>0.9910133974745334</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3575,10 +3575,10 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>1.026357763084764</v>
+        <v>1.02635776308462</v>
       </c>
       <c r="C291">
-        <v>1</v>
+        <v>0.9900843861106871</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3586,10 +3586,10 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>1.03218433132234</v>
+        <v>1.032184331322228</v>
       </c>
       <c r="C292">
-        <v>1</v>
+        <v>0.9911329041123726</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3597,10 +3597,10 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>1.023961256547581</v>
+        <v>1.023961256547531</v>
       </c>
       <c r="C293">
-        <v>1</v>
+        <v>0.9896719185260343</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3608,10 +3608,10 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>1.028562464317685</v>
+        <v>1.028562464317532</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>0.9904847124140084</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3619,10 +3619,10 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>1.024815082271777</v>
+        <v>1.024815082271837</v>
       </c>
       <c r="C295">
-        <v>1</v>
+        <v>0.9898067353182358</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3630,10 +3630,10 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>1.032178470749577</v>
+        <v>1.032178470749546</v>
       </c>
       <c r="C296">
-        <v>1</v>
+        <v>0.9911166147254966</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3641,10 +3641,10 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>1.024644345597791</v>
+        <v>1.024644345597731</v>
       </c>
       <c r="C297">
-        <v>1</v>
+        <v>0.9897762825216843</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3652,10 +3652,10 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>1.031397202908356</v>
+        <v>1.031397202908393</v>
       </c>
       <c r="C298">
-        <v>1</v>
+        <v>0.9909948330466005</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3663,10 +3663,10 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>1.031861518947935</v>
+        <v>1.031861518947842</v>
       </c>
       <c r="C299">
-        <v>1</v>
+        <v>0.9910816647537107</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3674,10 +3674,10 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>1.026356552256234</v>
+        <v>1.026356552256199</v>
       </c>
       <c r="C300">
-        <v>1</v>
+        <v>0.9900795120789888</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3685,10 +3685,10 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>1.031538204880865</v>
+        <v>1.031538204880884</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>0.991016249014001</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3696,10 +3696,10 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>1.032425814460485</v>
+        <v>1.032425814460496</v>
       </c>
       <c r="C302">
-        <v>1</v>
+        <v>0.9911785453910157</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3707,10 +3707,10 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>1.030592464434</v>
+        <v>1.030592464433926</v>
       </c>
       <c r="C303">
-        <v>1</v>
+        <v>0.9908431131327453</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3718,10 +3718,10 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>1.028545698615494</v>
+        <v>1.028545698615608</v>
       </c>
       <c r="C304">
-        <v>1</v>
+        <v>0.9904732617368162</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3729,10 +3729,10 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>1.032478366369384</v>
+        <v>1.032478366369386</v>
       </c>
       <c r="C305">
-        <v>1</v>
+        <v>0.9911516669271369</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3740,10 +3740,10 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>1.033314665515496</v>
+        <v>1.033314665515386</v>
       </c>
       <c r="C306">
-        <v>1</v>
+        <v>0.9912930311334434</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3751,10 +3751,10 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>1.035817192159992</v>
+        <v>1.035817192160012</v>
       </c>
       <c r="C307">
-        <v>1</v>
+        <v>0.9917548576961038</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3762,10 +3762,10 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>1.034963949617836</v>
+        <v>1.034963949617991</v>
       </c>
       <c r="C308">
-        <v>1</v>
+        <v>0.9916217794104299</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3773,10 +3773,10 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>1.034155552045335</v>
+        <v>1.034155552045218</v>
       </c>
       <c r="C309">
-        <v>1</v>
+        <v>0.9914875422480893</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3784,10 +3784,10 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>1.031938079332054</v>
+        <v>1.031938079331898</v>
       </c>
       <c r="C310">
-        <v>1</v>
+        <v>0.9910790298112314</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3795,10 +3795,10 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>1.041002808321982</v>
+        <v>1.041002808321799</v>
       </c>
       <c r="C311">
-        <v>1</v>
+        <v>0.9926657555849039</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3806,10 +3806,10 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>1.037544546852617</v>
+        <v>1.037544546852609</v>
       </c>
       <c r="C312">
-        <v>1</v>
+        <v>0.9920945896112163</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3817,10 +3817,10 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>1.036240803324616</v>
+        <v>1.036240803324562</v>
       </c>
       <c r="C313">
-        <v>1</v>
+        <v>0.9919170183488309</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3828,10 +3828,10 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>1.03756511422524</v>
+        <v>1.037565114225129</v>
       </c>
       <c r="C314">
-        <v>1</v>
+        <v>0.9921794361753797</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3839,10 +3839,10 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>1.036558733361619</v>
+        <v>1.036558733361627</v>
       </c>
       <c r="C315">
-        <v>1</v>
+        <v>0.992031480737517</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3850,10 +3850,10 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>1.032637514856157</v>
+        <v>1.032637514856029</v>
       </c>
       <c r="C316">
-        <v>1</v>
+        <v>0.9913775488815718</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3861,10 +3861,10 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>1.030444646280926</v>
+        <v>1.030444646280993</v>
       </c>
       <c r="C317">
-        <v>1</v>
+        <v>0.9910580457675826</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3872,10 +3872,10 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>1.026863428571021</v>
+        <v>1.026863428570851</v>
       </c>
       <c r="C318">
-        <v>1</v>
+        <v>0.9904678074552968</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3883,10 +3883,10 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>1.031117986069938</v>
+        <v>1.031117986070003</v>
       </c>
       <c r="C319">
-        <v>1</v>
+        <v>0.9912855943589334</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3894,10 +3894,10 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>1.034536983092363</v>
+        <v>1.03453698309235</v>
       </c>
       <c r="C320">
-        <v>1</v>
+        <v>0.9918886636515988</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3905,10 +3905,10 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>1.035373649161745</v>
+        <v>1.035373649161904</v>
       </c>
       <c r="C321">
-        <v>1</v>
+        <v>0.9920775714154066</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3916,10 +3916,10 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>1.037671858391891</v>
+        <v>1.037671858391941</v>
       </c>
       <c r="C322">
-        <v>1</v>
+        <v>0.9924679336559469</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3927,10 +3927,10 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>1.046143220839445</v>
+        <v>1.046143220839319</v>
       </c>
       <c r="C323">
-        <v>1</v>
+        <v>0.9938801295202389</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3938,10 +3938,10 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>1.043741357991898</v>
+        <v>1.043741357991815</v>
       </c>
       <c r="C324">
-        <v>1</v>
+        <v>0.9791535020432279</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3949,10 +3949,10 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>1.039774909712159</v>
+        <v>1.037003698882891</v>
       </c>
       <c r="C325">
-        <v>1</v>
+        <v>0.9948259119634574</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3960,10 +3960,10 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>1.043055811542258</v>
+        <v>1.040457606847181</v>
       </c>
       <c r="C326">
-        <v>1</v>
+        <v>0.9809907407610908</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3971,10 +3971,10 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>1.05403977587754</v>
+        <v>1.043721658932676</v>
       </c>
       <c r="C327">
-        <v>0.9972954768274314</v>
+        <v>0.9826214539261665</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3982,10 +3982,10 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>1.059481176601588</v>
+        <v>1.04805449935661</v>
       </c>
       <c r="C328">
-        <v>0.9981229159532871</v>
+        <v>0.9833864073746731</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -3993,10 +3993,10 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>1.064884499262305</v>
+        <v>1.05232294007668</v>
       </c>
       <c r="C329">
-        <v>0.9989363692885579</v>
+        <v>0.9701960726453802</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4004,10 +4004,10 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>1.066841511095103</v>
+        <v>1.053866954496327</v>
       </c>
       <c r="C330">
-        <v>0.9848890226036637</v>
+        <v>0.9704537378127855</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4015,10 +4015,10 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>1.071700285553215</v>
+        <v>1.057712714071078</v>
       </c>
       <c r="C331">
-        <v>0.9855744871366119</v>
+        <v>0.9710748373405078</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4026,10 +4026,10 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>1.078700565184959</v>
+        <v>1.063238656675787</v>
       </c>
       <c r="C332">
-        <v>0.986520480140629</v>
+        <v>0.9719250373546906</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4037,10 +4037,10 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>1.076007644333033</v>
+        <v>1.061120346217324</v>
       </c>
       <c r="C333">
-        <v>0.9861590051995623</v>
+        <v>0.9716039526014791</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4048,10 +4048,10 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>1.079693701325478</v>
+        <v>1.064015751686463</v>
       </c>
       <c r="C334">
-        <v>0.9866540459391163</v>
+        <v>0.9720416575224422</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4059,10 +4059,10 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>1.084539450335479</v>
+        <v>1.067841065856238</v>
       </c>
       <c r="C335">
-        <v>0.9729004081676583</v>
+        <v>0.97259242364401</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4070,10 +4070,10 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>1.079924327680411</v>
+        <v>1.06422985728216</v>
       </c>
       <c r="C336">
-        <v>0.9727348811506041</v>
+        <v>0.9720664319283134</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4081,10 +4081,10 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>1.083710799459109</v>
+        <v>1.067229978143113</v>
       </c>
       <c r="C337">
-        <v>0.9727213744243711</v>
+        <v>0.9724973854133665</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4092,10 +4092,10 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>1.080515602812673</v>
+        <v>1.064749352033627</v>
       </c>
       <c r="C338">
-        <v>0.9727774340811504</v>
+        <v>0.9721315450578797</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4103,10 +4103,10 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>1.079274070264129</v>
+        <v>1.063734466090774</v>
       </c>
       <c r="C339">
-        <v>0.9726396277154254</v>
+        <v>0.9719895160883152</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4114,10 +4114,10 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>1.0801622448754</v>
+        <v>1.064450141702123</v>
       </c>
       <c r="C340">
-        <v>0.9727449266246802</v>
+        <v>0.9720919620589716</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4125,10 +4125,10 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>1.076437992172561</v>
+        <v>1.061533912247665</v>
       </c>
       <c r="C341">
-        <v>0.9722421991194347</v>
+        <v>0.9716510397318228</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4136,10 +4136,10 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>1.072318679256353</v>
+        <v>1.058283031544551</v>
       </c>
       <c r="C342">
-        <v>0.9716808967622037</v>
+        <v>0.9711469335999223</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4147,10 +4147,10 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>1.071806813218493</v>
+        <v>1.057881031742943</v>
       </c>
       <c r="C343">
-        <v>0.971608280563945</v>
+        <v>0.971082862526997</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4158,10 +4158,10 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>1.070508686794698</v>
+        <v>1.056842339310623</v>
       </c>
       <c r="C344">
-        <v>0.9714356106250076</v>
+        <v>0.9709202998379383</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4169,10 +4169,10 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>1.068790065985103</v>
+        <v>1.055438312542468</v>
       </c>
       <c r="C345">
-        <v>0.9712237728682798</v>
+        <v>0.9707040677750848</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4180,10 +4180,10 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>1.062575784805128</v>
+        <v>1.050510957960419</v>
       </c>
       <c r="C346">
-        <v>0.9703253080887104</v>
+        <v>0.9698862682676676</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4191,10 +4191,10 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>1.060819543932542</v>
+        <v>1.049103403451447</v>
       </c>
       <c r="C347">
-        <v>0.9700735597532887</v>
+        <v>0.9696486471983863</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4202,10 +4202,10 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>1.055557590123214</v>
+        <v>1.044908931301833</v>
       </c>
       <c r="C348">
-        <v>0.969280927023667</v>
+        <v>0.9689159958988872</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4213,10 +4213,10 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>1.052300836100449</v>
+        <v>1.042302045768766</v>
       </c>
       <c r="C349">
-        <v>0.9687822091477261</v>
+        <v>0.9687822091477785</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4224,10 +4224,10 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>1.055081238051535</v>
+        <v>1.044473662144982</v>
       </c>
       <c r="C350">
-        <v>0.9692492467965292</v>
+        <v>0.9692492467965705</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4235,10 +4235,10 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>1.049616066413593</v>
+        <v>1.04011975187864</v>
       </c>
       <c r="C351">
-        <v>0.9683877636628226</v>
+        <v>0.9683877636628324</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4246,10 +4246,10 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>1.049415181922372</v>
+        <v>1.039914644394173</v>
       </c>
       <c r="C352">
-        <v>0.9683903541361708</v>
+        <v>0.9683903541361563</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4257,10 +4257,10 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>1.047201566915797</v>
+        <v>1.038135256680405</v>
       </c>
       <c r="C353">
-        <v>0.9680438668776321</v>
+        <v>0.9680438668776616</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4268,10 +4268,10 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>1.039067886167573</v>
+        <v>1.031618411804742</v>
       </c>
       <c r="C354">
-        <v>0.966707525119099</v>
+        <v>0.9667075251191342</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4279,10 +4279,10 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>1.036202015147772</v>
+        <v>1.029319386231772</v>
       </c>
       <c r="C355">
-        <v>0.9662217825217219</v>
+        <v>0.9662217825216951</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4290,10 +4290,10 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>1.027941781269225</v>
+        <v>1.022727358397812</v>
       </c>
       <c r="C356">
-        <v>0.9647430924817334</v>
+        <v>0.9647430924817966</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4301,10 +4301,10 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>1.025736866102415</v>
+        <v>1.020938231175992</v>
       </c>
       <c r="C357">
-        <v>0.9643618027983922</v>
+        <v>0.9643618027983545</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4312,10 +4312,10 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>1.018099112441611</v>
+        <v>1.014853247018889</v>
       </c>
       <c r="C358">
-        <v>0.9629032848645505</v>
+        <v>0.9629032848645477</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4323,10 +4323,10 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>1.008837239322808</v>
+        <v>1.007427059667589</v>
       </c>
       <c r="C359">
-        <v>0.9610764868998823</v>
+        <v>0.9610764868998749</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4334,10 +4334,10 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>1.002558181699774</v>
+        <v>1.001767041582631</v>
       </c>
       <c r="C360">
-        <v>0.951998440721601</v>
+        <v>0.9519984407214971</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4348,7 +4348,7 @@
         <v>1</v>
       </c>
       <c r="C361">
-        <v>0.9513531807723186</v>
+        <v>0.9513531807722816</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4359,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="C362">
-        <v>0.9542071076178507</v>
+        <v>0.9542071076180817</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4367,10 +4367,10 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>1</v>
+        <v>1.012278139071031</v>
       </c>
       <c r="C363">
-        <v>0.9504768062259012</v>
+        <v>0.9504768062259018</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4378,10 +4378,10 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>1</v>
+        <v>1.011474527727401</v>
       </c>
       <c r="C364">
-        <v>0.9620933218836029</v>
+        <v>0.9620933218835048</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4389,10 +4389,10 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>1</v>
+        <v>1.010041009450963</v>
       </c>
       <c r="C365">
-        <v>0.9548727961662505</v>
+        <v>0.9548727961665174</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4400,10 +4400,10 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>1.006097427020672</v>
+        <v>1.007135056708372</v>
       </c>
       <c r="C366">
-        <v>0.9444440100746183</v>
+        <v>0.9551629017715267</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4411,10 +4411,10 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>1.005547954099343</v>
+        <v>1.022610263287147</v>
       </c>
       <c r="C367">
-        <v>0.9418195665080592</v>
+        <v>0.9531389325692617</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4422,10 +4422,10 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>1.004698694132392</v>
+        <v>1.021867437337083</v>
       </c>
       <c r="C368">
-        <v>0.9383048469243274</v>
+        <v>0.9503993626634158</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4433,10 +4433,10 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>1.020416973944522</v>
+        <v>1.021473830873453</v>
       </c>
       <c r="C369">
-        <v>0.9364429056066235</v>
+        <v>0.9489656285565761</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4444,10 +4444,10 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>1.020828676215048</v>
+        <v>1.021923656688332</v>
       </c>
       <c r="C370">
-        <v>0.9385775126328065</v>
+        <v>0.9506001999146567</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4455,10 +4455,10 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>1.021461410786543</v>
+        <v>1.022499159864802</v>
       </c>
       <c r="C371">
-        <v>0.9413014331461086</v>
+        <v>0.9527208648174673</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4466,10 +4466,10 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>1.021812834817681</v>
+        <v>1.022805668984458</v>
       </c>
       <c r="C372">
-        <v>0.9427559186953892</v>
+        <v>0.9538586304719695</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4477,10 +4477,10 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>1.021538662176149</v>
+        <v>1.022530528101189</v>
       </c>
       <c r="C373">
-        <v>0.941441329265303</v>
+        <v>0.9528434162676584</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4488,10 +4488,10 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>1.02389641775292</v>
+        <v>1.024693772366647</v>
       </c>
       <c r="C374">
-        <v>0.9518426358383011</v>
+        <v>0.9609525370690191</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4499,10 +4499,10 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>1.023755776878763</v>
+        <v>1.024563880976641</v>
       </c>
       <c r="C375">
-        <v>0.9512106144263804</v>
+        <v>0.9604593659500833</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4510,10 +4510,10 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>1.026112340676138</v>
+        <v>1.026728872792893</v>
       </c>
       <c r="C376">
-        <v>0.9618733882746221</v>
+        <v>0.9687954638815788</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4521,10 +4521,10 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>1.024727650263495</v>
+        <v>1.024727650263588</v>
       </c>
       <c r="C377">
-        <v>0.9552679042015692</v>
+        <v>0.963649902003377</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4532,10 +4532,10 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>1.028343743984011</v>
+        <v>1.028343743983999</v>
       </c>
       <c r="C378">
-        <v>0.9722536760552035</v>
+        <v>0.9769323271109839</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4543,10 +4543,10 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>1.028430226797837</v>
+        <v>1.02843022679784</v>
       </c>
       <c r="C379">
-        <v>0.9724500685724913</v>
+        <v>0.9771015179467136</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4554,10 +4554,10 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>1.030882147377693</v>
+        <v>1.030882147377687</v>
       </c>
       <c r="C380">
-        <v>0.9842898864050345</v>
+        <v>0.986401211167708</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4565,10 +4565,10 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>1.031746291338104</v>
+        <v>1.031746291338107</v>
       </c>
       <c r="C381">
-        <v>0.9882779155634066</v>
+        <v>0.9882779155634374</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4576,10 +4576,10 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>1.032287458090905</v>
+        <v>1.032287458090938</v>
       </c>
       <c r="C382">
-        <v>0.9909107472045086</v>
+        <v>0.990910747204674</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4587,10 +4587,10 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>1.033462156441657</v>
+        <v>1.033462156441684</v>
       </c>
       <c r="C383">
-        <v>0.9962531218695696</v>
+        <v>0.9962531218696432</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4598,7 +4598,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>1.03794108432023</v>
+        <v>1.037941084320137</v>
       </c>
       <c r="C384">
         <v>1</v>
@@ -4609,10 +4609,10 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>1.035248488484342</v>
+        <v>1.035248488484417</v>
       </c>
       <c r="C385">
-        <v>1</v>
+        <v>0.988845757646949</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4620,7 +4620,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>1.040988423308219</v>
+        <v>1.040988423308137</v>
       </c>
       <c r="C386">
         <v>1</v>
@@ -4631,10 +4631,10 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>1.046124071631931</v>
+        <v>1.046124071632089</v>
       </c>
       <c r="C387">
-        <v>1</v>
+        <v>0.9908231802619832</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4642,10 +4642,10 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>1.045724239680198</v>
+        <v>1.045724239680325</v>
       </c>
       <c r="C388">
-        <v>1</v>
+        <v>0.9907506811292838</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4653,10 +4653,10 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>1.045829793242528</v>
+        <v>1.04582979324263</v>
       </c>
       <c r="C389">
-        <v>1</v>
+        <v>0.9907813199525979</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4664,10 +4664,10 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>1.046881239346417</v>
+        <v>1.046881239346287</v>
       </c>
       <c r="C390">
-        <v>1</v>
+        <v>0.9909490944975576</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4675,10 +4675,10 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>1.044139998368137</v>
+        <v>1.044139998368362</v>
       </c>
       <c r="C391">
-        <v>1</v>
+        <v>0.9904823528856632</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4686,10 +4686,10 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>1.044502578905227</v>
+        <v>1.044502578905274</v>
       </c>
       <c r="C392">
-        <v>1</v>
+        <v>0.990534863686091</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4697,10 +4697,10 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>1.047858824833369</v>
+        <v>1.047858824833481</v>
       </c>
       <c r="C393">
-        <v>1</v>
+        <v>0.9911194855305634</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4708,10 +4708,10 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>1.034509616107796</v>
+        <v>1.034509616107627</v>
       </c>
       <c r="C394">
-        <v>1</v>
+        <v>0.9915273171076554</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4719,10 +4719,10 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>1.034482431819238</v>
+        <v>1.034482431819186</v>
       </c>
       <c r="C395">
-        <v>1</v>
+        <v>0.9915214373644496</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4730,10 +4730,10 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>1.029288363636387</v>
+        <v>1.029288363636253</v>
       </c>
       <c r="C396">
-        <v>1</v>
+        <v>0.9906104188625435</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4741,10 +4741,10 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>1.02873063336679</v>
+        <v>1.02873063336692</v>
       </c>
       <c r="C397">
-        <v>1</v>
+        <v>0.9905123283384842</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4752,10 +4752,10 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>1.030279691327982</v>
+        <v>1.030279691328051</v>
       </c>
       <c r="C398">
-        <v>1</v>
+        <v>0.990777326103894</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4763,10 +4763,10 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>1.032241776459389</v>
+        <v>1.032241776459361</v>
       </c>
       <c r="C399">
-        <v>1</v>
+        <v>0.9911063150082318</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4774,10 +4774,10 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>1.032602460387433</v>
+        <v>1.032602460387386</v>
       </c>
       <c r="C400">
-        <v>1</v>
+        <v>0.9911905587560448</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4785,10 +4785,10 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>1.034828305829476</v>
+        <v>1.034828305829468</v>
       </c>
       <c r="C401">
-        <v>1</v>
+        <v>0.991578006255213</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4796,10 +4796,10 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>1.03113219348988</v>
+        <v>1.031132193489967</v>
       </c>
       <c r="C402">
-        <v>1</v>
+        <v>0.9909474764864831</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4807,10 +4807,10 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>1.03442728389416</v>
+        <v>1.03442728389413</v>
       </c>
       <c r="C403">
-        <v>1</v>
+        <v>0.9915077679646216</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4818,10 +4818,10 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>1.038692460361555</v>
+        <v>1.03869246036174</v>
       </c>
       <c r="C404">
-        <v>1</v>
+        <v>0.9922399141122474</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4829,10 +4829,10 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>1.034183858547214</v>
+        <v>1.034183858547187</v>
       </c>
       <c r="C405">
-        <v>1</v>
+        <v>0.9914696836701616</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4840,10 +4840,10 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>1.031087078741056</v>
+        <v>1.031087078741</v>
       </c>
       <c r="C406">
-        <v>1</v>
+        <v>0.9909361174979766</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4851,10 +4851,10 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>1.037523607840903</v>
+        <v>1.037523607840864</v>
       </c>
       <c r="C407">
-        <v>1</v>
+        <v>0.9920969924356652</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4862,10 +4862,10 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>1.03683134259803</v>
+        <v>1.03683134259797</v>
       </c>
       <c r="C408">
-        <v>1</v>
+        <v>0.991986671623297</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4873,10 +4873,10 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>1.031330906117912</v>
+        <v>1.031330906117984</v>
       </c>
       <c r="C409">
-        <v>1</v>
+        <v>0.9910622358323484</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4884,10 +4884,10 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>1.040528449967673</v>
+        <v>1.040528449967494</v>
       </c>
       <c r="C410">
-        <v>1</v>
+        <v>0.9926657821443671</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4895,10 +4895,10 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>1.03612625091225</v>
+        <v>1.036126250912165</v>
       </c>
       <c r="C411">
-        <v>1</v>
+        <v>0.9919595520543442</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4906,10 +4906,10 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>1.03351093620817</v>
+        <v>1.033510936208257</v>
       </c>
       <c r="C412">
-        <v>1</v>
+        <v>0.9915797230678102</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4917,10 +4917,10 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>1.033304774763101</v>
+        <v>1.033304774762926</v>
       </c>
       <c r="C413">
-        <v>1</v>
+        <v>0.9915818524126694</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4928,10 +4928,10 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>1.026961543493448</v>
+        <v>1.026961543493359</v>
       </c>
       <c r="C414">
-        <v>1</v>
+        <v>0.9904944813776532</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4939,10 +4939,10 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>1.033576864257283</v>
+        <v>1.03357686425763</v>
       </c>
       <c r="C415">
-        <v>1</v>
+        <v>0.9917014128783714</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4950,10 +4950,10 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>1.03206134301137</v>
+        <v>1.032061343011439</v>
       </c>
       <c r="C416">
-        <v>1</v>
+        <v>0.991457683206094</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4961,10 +4961,10 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>1.033035419780633</v>
+        <v>1.033035419780729</v>
       </c>
       <c r="C417">
-        <v>1</v>
+        <v>0.9916714739978846</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4972,10 +4972,10 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>1.036070121037629</v>
+        <v>1.036070121037361</v>
       </c>
       <c r="C418">
-        <v>1</v>
+        <v>0.9921876982841275</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -4983,10 +4983,10 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>1.036852515588008</v>
+        <v>1.036852515587762</v>
       </c>
       <c r="C419">
-        <v>1</v>
+        <v>0.992352823195395</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -4994,10 +4994,10 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>1.044219619976959</v>
+        <v>1.044219619976707</v>
       </c>
       <c r="C420">
-        <v>1</v>
+        <v>0.99358805349301</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5005,10 +5005,10 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>1.048901554416903</v>
+        <v>1.048901554416941</v>
       </c>
       <c r="C421">
-        <v>1</v>
+        <v>0.9943458358564488</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5016,10 +5016,10 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>1.047156699762038</v>
+        <v>1.044566467038238</v>
       </c>
       <c r="C422">
-        <v>1</v>
+        <v>0.9816126450728537</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5027,10 +5027,10 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>1.052294629498062</v>
+        <v>1.049685817484667</v>
       </c>
       <c r="C423">
-        <v>1</v>
+        <v>0.9823692642104223</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5038,10 +5038,10 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>1.055857778092491</v>
+        <v>1.045146661651629</v>
       </c>
       <c r="C424">
-        <v>0.9975923072366919</v>
+        <v>0.9828816373109253</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5049,10 +5049,10 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>1.060138978034144</v>
+        <v>1.048574169262551</v>
       </c>
       <c r="C425">
-        <v>0.9982237348771288</v>
+        <v>0.9834771542762863</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5060,10 +5060,10 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>1.067267400544649</v>
+        <v>1.054222883194883</v>
       </c>
       <c r="C426">
-        <v>0.9849371876586404</v>
+        <v>0.9705080188257671</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5071,10 +5071,10 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>1.070410065198887</v>
+        <v>1.056709726664139</v>
       </c>
       <c r="C427">
-        <v>0.9853828937610288</v>
+        <v>0.9709112589052965</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5082,10 +5082,10 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>1.075461660419638</v>
+        <v>1.060693387387299</v>
       </c>
       <c r="C428">
-        <v>0.9860829224342417</v>
+        <v>0.9715377051503389</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5093,10 +5093,10 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>1.076823433995528</v>
+        <v>1.061758339085534</v>
       </c>
       <c r="C429">
-        <v>0.986271915161086</v>
+        <v>0.9717023155970476</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5104,10 +5104,10 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>1.082396116276292</v>
+        <v>1.066125197949596</v>
       </c>
       <c r="C430">
-        <v>0.9726621896744265</v>
+        <v>0.9723536567617024</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5115,10 +5115,10 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>1.081695598109333</v>
+        <v>1.065626111532588</v>
       </c>
       <c r="C431">
-        <v>0.9729617239488991</v>
+        <v>0.9722705257576353</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5126,10 +5126,10 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>1.080804033394109</v>
+        <v>1.0649050468016</v>
       </c>
       <c r="C432">
-        <v>0.9728595210388433</v>
+        <v>0.9721694088278279</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5137,10 +5137,10 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>1.080179868764551</v>
+        <v>1.064425875233927</v>
       </c>
       <c r="C433">
-        <v>0.9727712835150695</v>
+        <v>0.9720964426966412</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5148,10 +5148,10 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>1.083707431535729</v>
+        <v>1.06724120713901</v>
       </c>
       <c r="C434">
-        <v>0.9726975268715614</v>
+        <v>0.9724961175968979</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5159,10 +5159,10 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>1.078667410968228</v>
+        <v>1.063289959696428</v>
       </c>
       <c r="C435">
-        <v>0.9725388388516392</v>
+        <v>0.9719162013642305</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5170,10 +5170,10 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>1.07320927892584</v>
+        <v>1.058975647958544</v>
       </c>
       <c r="C436">
-        <v>0.9718109572011103</v>
+        <v>0.971258158058583</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5181,10 +5181,10 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>1.073531043158479</v>
+        <v>1.059254757166963</v>
       </c>
       <c r="C437">
-        <v>0.9718384440071228</v>
+        <v>0.9712962995475611</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5192,10 +5192,10 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>1.074413118964118</v>
+        <v>1.059933043536409</v>
       </c>
       <c r="C438">
-        <v>0.9719709697834183</v>
+        <v>0.971405773139757</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5203,10 +5203,10 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>1.071189092687109</v>
+        <v>1.057404918946062</v>
       </c>
       <c r="C439">
-        <v>0.9715140653262896</v>
+        <v>0.9710045902452623</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5214,10 +5214,10 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>1.067600426533432</v>
+        <v>1.054527071213211</v>
       </c>
       <c r="C440">
-        <v>0.9710332995721949</v>
+        <v>0.9705487031491589</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5225,10 +5225,10 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>1.067845291134904</v>
+        <v>1.054728167707417</v>
       </c>
       <c r="C441">
-        <v>0.9710633041979183</v>
+        <v>0.9705799562540595</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5236,10 +5236,10 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>1.064626263221248</v>
+        <v>1.052153298921767</v>
       </c>
       <c r="C442">
-        <v>0.9706154271881119</v>
+        <v>0.9701596364735681</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5247,10 +5247,10 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>1.060369632524603</v>
+        <v>1.048753373710291</v>
       </c>
       <c r="C443">
-        <v>0.9700008158901511</v>
+        <v>0.9695865962991957</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5258,10 +5258,10 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>1.05864553571801</v>
+        <v>1.047353664754805</v>
       </c>
       <c r="C444">
-        <v>0.9697623910917851</v>
+        <v>0.9693504740971655</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5269,10 +5269,10 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>1.05713853848017</v>
+        <v>1.0461253604527</v>
       </c>
       <c r="C445">
-        <v>0.9695549938396436</v>
+        <v>0.9691418432908813</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5280,10 +5280,10 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>1.058091451734493</v>
+        <v>1.046861335378102</v>
       </c>
       <c r="C446">
-        <v>0.9697163777838191</v>
+        <v>0.9697163777838509</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5291,10 +5291,10 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>1.051911827309446</v>
+        <v>1.041918154297217</v>
       </c>
       <c r="C447">
-        <v>0.9687772506424147</v>
+        <v>0.9683968313126443</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5302,10 +5302,10 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>1.046947432446017</v>
+        <v>1.037963794136097</v>
       </c>
       <c r="C448">
-        <v>0.9679779697632029</v>
+        <v>0.9679779697633187</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5313,10 +5313,10 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>1.044575943665008</v>
+        <v>1.03602162767267</v>
       </c>
       <c r="C449">
-        <v>0.9676283692063419</v>
+        <v>0.967628369206329</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5324,10 +5324,10 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>1.044456499984503</v>
+        <v>1.035913120776112</v>
       </c>
       <c r="C450">
-        <v>0.9676191154782747</v>
+        <v>0.9676191154782604</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5335,10 +5335,10 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>1.041122955685887</v>
+        <v>1.033247951959081</v>
       </c>
       <c r="C451">
-        <v>0.9670658251791887</v>
+        <v>0.9670658251791503</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5346,10 +5346,10 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>1.025263636425758</v>
+        <v>1.02058782705021</v>
       </c>
       <c r="C452">
-        <v>0.9642498324652752</v>
+        <v>0.9642498324653308</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5357,10 +5357,10 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>1.024709553913024</v>
+        <v>1.020154776022378</v>
       </c>
       <c r="C453">
-        <v>0.9641383665710584</v>
+        <v>0.9641383665710156</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5368,10 +5368,10 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>1.015812678315106</v>
+        <v>1.013003602010405</v>
       </c>
       <c r="C454">
-        <v>0.9624805457197247</v>
+        <v>0.9624805457197476</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5379,10 +5379,10 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>1.005389884650174</v>
+        <v>1.004579967535597</v>
       </c>
       <c r="C455">
-        <v>0.959451960736554</v>
+        <v>0.9594519607364981</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5390,10 +5390,10 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>1.002618096775539</v>
+        <v>1.002618096775534</v>
       </c>
       <c r="C456">
-        <v>0.9522814214735423</v>
+        <v>0.9522814214735107</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5401,10 +5401,10 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>1.000207600031019</v>
+        <v>1.00020760003103</v>
       </c>
       <c r="C457">
-        <v>0.9531747188656229</v>
+        <v>0.9531747188656357</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5415,7 +5415,7 @@
         <v>1</v>
       </c>
       <c r="C458">
-        <v>0.9609757984691227</v>
+        <v>0.9609757984692922</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5423,10 +5423,10 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>1</v>
+        <v>1.012630225537755</v>
       </c>
       <c r="C459">
-        <v>0.9522708870876119</v>
+        <v>0.9522708870878674</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5434,10 +5434,10 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>1</v>
+        <v>1.011148741551942</v>
       </c>
       <c r="C460">
-        <v>0.9603893259218531</v>
+        <v>0.9603893259218631</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5445,10 +5445,10 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>1.009591524526974</v>
       </c>
       <c r="C461">
-        <v>0.9528220976925134</v>
+        <v>0.9528220976925984</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5456,10 +5456,10 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>1.006644349115009</v>
+        <v>1.00761855934147</v>
       </c>
       <c r="C462">
-        <v>0.9466986597640428</v>
+        <v>0.9569261795324931</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5467,10 +5467,10 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>1.006720456114558</v>
+        <v>1.023736692290017</v>
       </c>
       <c r="C463">
-        <v>0.9472278382255429</v>
+        <v>0.9573246733793473</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5478,10 +5478,10 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>1.005443586126964</v>
+        <v>1.02257298007503</v>
       </c>
       <c r="C464">
-        <v>0.9416552388139858</v>
+        <v>0.9529916585870811</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5489,10 +5489,10 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>1.005460929882706</v>
+        <v>1.022565821336939</v>
       </c>
       <c r="C465">
-        <v>0.9416159823950807</v>
+        <v>0.9529689422396083</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5500,10 +5500,10 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>1.020066454251422</v>
+        <v>1.02121356391322</v>
       </c>
       <c r="C466">
-        <v>0.9352352483089834</v>
+        <v>0.9480066123005663</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5511,10 +5511,10 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>1.020532996348082</v>
+        <v>1.021622860839111</v>
       </c>
       <c r="C467">
-        <v>0.9371531494943868</v>
+        <v>0.9495030443321634</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5522,10 +5522,10 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>1.021377668505315</v>
+        <v>1.022416320080617</v>
       </c>
       <c r="C468">
-        <v>0.9409067735758623</v>
+        <v>0.9524158129716824</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5533,10 +5533,10 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>1.022081634189009</v>
+        <v>1.023030448458429</v>
       </c>
       <c r="C469">
-        <v>0.943823215219839</v>
+        <v>0.9546974413678623</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5544,10 +5544,10 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>1.023323586369851</v>
+        <v>1.024177222603653</v>
       </c>
       <c r="C470">
-        <v>0.9493379388129281</v>
+        <v>0.958994227505037</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5555,10 +5555,10 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>1.024040051852522</v>
+        <v>1.024844823930087</v>
       </c>
       <c r="C471">
-        <v>0.9525834236266267</v>
+        <v>0.961524128545217</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5566,10 +5566,10 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>1.02504922090793</v>
+        <v>1.025723606241322</v>
       </c>
       <c r="C472">
-        <v>0.9568795311174217</v>
+        <v>0.9648986721009692</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5577,10 +5577,10 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>1.027280397599028</v>
+        <v>1.027280397599031</v>
       </c>
       <c r="C473">
-        <v>0.9673138235179041</v>
+        <v>0.9730545525419884</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5588,10 +5588,10 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>1.027298451346366</v>
+        <v>1.027298451346339</v>
       </c>
       <c r="C474">
-        <v>0.9673963981371755</v>
+        <v>0.9731193895593485</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5599,10 +5599,10 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>1.028475798544984</v>
+        <v>1.028475798544974</v>
       </c>
       <c r="C475">
-        <v>0.9726252980314987</v>
+        <v>0.9772419026217148</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5610,10 +5610,10 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>1.030860107608827</v>
+        <v>1.030860107608849</v>
       </c>
       <c r="C476">
-        <v>0.9841754314152</v>
+        <v>0.9863116497968984</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5621,10 +5621,10 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>1.031451863687856</v>
+        <v>1.031451863687819</v>
       </c>
       <c r="C477">
-        <v>0.9868880248736192</v>
+        <v>0.9868880248736015</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5632,10 +5632,10 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>1.033023677524241</v>
+        <v>1.033023677524221</v>
       </c>
       <c r="C478">
-        <v>0.9947109296548581</v>
+        <v>0.9947109296548493</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5643,10 +5643,10 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>1.034305981825101</v>
+        <v>1.034305981825108</v>
       </c>
       <c r="C479">
-        <v>0.9998151780558289</v>
+        <v>0.9998151780556765</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5654,7 +5654,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>1.034678651876716</v>
+        <v>1.034678651876683</v>
       </c>
       <c r="C480">
         <v>1</v>
@@ -5665,7 +5665,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>1.037373873483945</v>
+        <v>1.03737387348391</v>
       </c>
       <c r="C481">
         <v>1</v>
@@ -5676,7 +5676,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>1.046203211094283</v>
+        <v>1.046203211094152</v>
       </c>
       <c r="C482">
         <v>1</v>
@@ -5687,10 +5687,10 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>1.045170443546277</v>
+        <v>1.045170443546417</v>
       </c>
       <c r="C483">
-        <v>1</v>
+        <v>0.9906686921480862</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5698,10 +5698,10 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>1.046183945179987</v>
+        <v>1.046183945180048</v>
       </c>
       <c r="C484">
-        <v>1</v>
+        <v>0.9908226241754375</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5709,10 +5709,10 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>1.047591086323956</v>
+        <v>1.04759108632397</v>
       </c>
       <c r="C485">
-        <v>1</v>
+        <v>0.9910880322671742</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5720,10 +5720,10 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>1.046016011653098</v>
+        <v>1.046016011652866</v>
       </c>
       <c r="C486">
-        <v>1</v>
+        <v>0.990816690898744</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5731,10 +5731,10 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>1.043969456897294</v>
+        <v>1.043969456897093</v>
       </c>
       <c r="C487">
-        <v>1</v>
+        <v>0.9904130418467717</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5742,10 +5742,10 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>1.043292988841455</v>
+        <v>1.043292988841385</v>
       </c>
       <c r="C488">
-        <v>1</v>
+        <v>0.990292388287054</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5753,10 +5753,10 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>1.046120030056961</v>
+        <v>1.046120030057116</v>
       </c>
       <c r="C489">
-        <v>1</v>
+        <v>0.9908247949564237</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5764,10 +5764,10 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>1.043444378736943</v>
+        <v>1.043444378736828</v>
       </c>
       <c r="C490">
-        <v>1</v>
+        <v>0.9903308373961407</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5775,10 +5775,10 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>1.047575913127841</v>
+        <v>1.047575913127703</v>
       </c>
       <c r="C491">
-        <v>1</v>
+        <v>0.9910597024097672</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5786,10 +5786,10 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>1.043138456663117</v>
+        <v>1.043138456662966</v>
       </c>
       <c r="C492">
-        <v>1</v>
+        <v>0.9902720887754836</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5797,10 +5797,10 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>1.043177880000677</v>
+        <v>1.043177880000879</v>
       </c>
       <c r="C493">
-        <v>1</v>
+        <v>0.9902922937568015</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5808,10 +5808,10 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>1.045498726831753</v>
+        <v>1.04549872683178</v>
       </c>
       <c r="C494">
-        <v>1</v>
+        <v>0.9906731464509393</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5819,10 +5819,10 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>1.046344741540228</v>
+        <v>1.046344741540355</v>
       </c>
       <c r="C495">
-        <v>1</v>
+        <v>0.9908258617265416</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5830,10 +5830,10 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>1.049869864928693</v>
+        <v>1.049869864928733</v>
       </c>
       <c r="C496">
-        <v>1</v>
+        <v>0.9914829246631578</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5841,10 +5841,10 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>1.043852375689888</v>
+        <v>1.043852375689814</v>
       </c>
       <c r="C497">
-        <v>1</v>
+        <v>0.9903916766746979</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5852,10 +5852,10 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>1.046018380619385</v>
+        <v>1.04601838061935</v>
       </c>
       <c r="C498">
-        <v>1</v>
+        <v>0.9907783768048373</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5863,10 +5863,10 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>1.04832934717865</v>
+        <v>1.048329347178546</v>
       </c>
       <c r="C499">
-        <v>1</v>
+        <v>0.9912007020678401</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5874,10 +5874,10 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>1.045894309382981</v>
+        <v>1.045894309383011</v>
       </c>
       <c r="C500">
-        <v>1</v>
+        <v>0.9907668877060462</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5885,10 +5885,10 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>1.049853074833772</v>
+        <v>1.049853074833696</v>
       </c>
       <c r="C501">
-        <v>1</v>
+        <v>0.9915087049833559</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5896,10 +5896,10 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>1.049801231779129</v>
+        <v>1.049801231779142</v>
       </c>
       <c r="C502">
-        <v>1</v>
+        <v>0.9914716561278289</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5907,10 +5907,10 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>1.037710748220972</v>
+        <v>1.037710748221111</v>
       </c>
       <c r="C503">
-        <v>1</v>
+        <v>0.9921092282172618</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5918,10 +5918,10 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>1.035344424467333</v>
+        <v>1.035344424467432</v>
       </c>
       <c r="C504">
-        <v>1</v>
+        <v>0.9917376654694262</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5929,10 +5929,10 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>1.042822787723269</v>
+        <v>1.042822787723463</v>
       </c>
       <c r="C505">
-        <v>1</v>
+        <v>0.9930169318118957</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5940,10 +5940,10 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>1.039165633315397</v>
+        <v>1.039165633315351</v>
       </c>
       <c r="C506">
-        <v>1</v>
+        <v>0.9923981077564863</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5951,10 +5951,10 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>1.03911762178445</v>
+        <v>1.039117621784464</v>
       </c>
       <c r="C507">
-        <v>1</v>
+        <v>0.9924193734465977</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5962,10 +5962,10 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>1.03898157273044</v>
+        <v>1.038981572730556</v>
       </c>
       <c r="C508">
-        <v>1</v>
+        <v>0.9924595833082674</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5973,10 +5973,10 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>1.035922254036011</v>
+        <v>1.035922254036056</v>
       </c>
       <c r="C509">
-        <v>1</v>
+        <v>0.9919601046954353</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5984,10 +5984,10 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>1.042518905232982</v>
+        <v>1.042518905232962</v>
       </c>
       <c r="C510">
-        <v>1</v>
+        <v>0.9931184518704569</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -5995,10 +5995,10 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>1.045770484030731</v>
+        <v>1.045770484030764</v>
       </c>
       <c r="C511">
-        <v>1</v>
+        <v>0.993669780999345</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6006,10 +6006,10 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>1.04063208246503</v>
+        <v>1.040632082464947</v>
       </c>
       <c r="C512">
-        <v>1</v>
+        <v>0.9928525819252539</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6017,10 +6017,10 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>1.04710862364845</v>
+        <v>1.047108623648399</v>
       </c>
       <c r="C513">
-        <v>1</v>
+        <v>0.9939426518902084</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6028,10 +6028,10 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>1.049092777714609</v>
+        <v>1.049092777714546</v>
       </c>
       <c r="C514">
-        <v>1</v>
+        <v>0.9799513738608048</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6039,10 +6039,10 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>1.039135215614896</v>
+        <v>1.036868357273542</v>
       </c>
       <c r="C515">
-        <v>1</v>
+        <v>0.9803860208947175</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6050,10 +6050,10 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>1.035198857974801</v>
+        <v>1.032626352453258</v>
       </c>
       <c r="C516">
-        <v>1</v>
+        <v>0.9797567170676457</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6061,10 +6061,10 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>1.046002238908485</v>
+        <v>1.043494698574764</v>
       </c>
       <c r="C517">
-        <v>1</v>
+        <v>0.9814402407697476</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6072,10 +6072,10 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>1.045457153916062</v>
+        <v>1.042790679851922</v>
       </c>
       <c r="C518">
-        <v>1</v>
+        <v>0.9813558606476626</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6083,10 +6083,10 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>1.044354118822946</v>
+        <v>1.041583181390134</v>
       </c>
       <c r="C519">
-        <v>1</v>
+        <v>0.9811870655953765</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6094,10 +6094,10 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>1.050780904230308</v>
+        <v>1.047862982707627</v>
       </c>
       <c r="C520">
-        <v>1</v>
+        <v>0.9821448567323834</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6105,10 +6105,10 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>1.052751190511515</v>
+        <v>1.049711482293038</v>
       </c>
       <c r="C521">
-        <v>1</v>
+        <v>0.9824297017180033</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6116,10 +6116,10 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>1.052893573685177</v>
+        <v>1.04977329051662</v>
       </c>
       <c r="C522">
-        <v>1</v>
+        <v>0.9824492084076155</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6127,10 +6127,10 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>1.052249486816178</v>
+        <v>1.048926778004015</v>
       </c>
       <c r="C523">
-        <v>1</v>
+        <v>0.982353438267572</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6138,10 +6138,10 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>1.05278081563189</v>
+        <v>1.049324348467754</v>
       </c>
       <c r="C524">
-        <v>1</v>
+        <v>0.9824285571855649</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6149,10 +6149,10 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>1.05492862565733</v>
+        <v>1.044598805843782</v>
       </c>
       <c r="C525">
-        <v>0.9973059740682224</v>
+        <v>0.9827380901205933</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6160,10 +6160,10 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>1.058209728434217</v>
+        <v>1.047249357875522</v>
       </c>
       <c r="C526">
-        <v>0.9977799217710418</v>
+        <v>0.9831976018032379</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6171,10 +6171,10 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>1.055830992207052</v>
+        <v>1.045355070410023</v>
       </c>
       <c r="C527">
-        <v>0.9974169423370679</v>
+        <v>0.9689406840990548</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6182,10 +6182,10 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>1.059926023147155</v>
+        <v>1.048641338517795</v>
       </c>
       <c r="C528">
-        <v>0.9980195067620099</v>
+        <v>0.9834333887620822</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6193,10 +6193,10 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>1.05958670547094</v>
+        <v>1.048364511372042</v>
       </c>
       <c r="C529">
-        <v>0.9979735635410394</v>
+        <v>0.969464436676841</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6204,10 +6204,10 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>1.059800021487863</v>
+        <v>1.04853224815059</v>
       </c>
       <c r="C530">
-        <v>0.9980070729991041</v>
+        <v>0.9694939428230951</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6215,10 +6215,10 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>1.06260405153682</v>
+        <v>1.05075909261208</v>
       </c>
       <c r="C531">
-        <v>0.9984267079623701</v>
+        <v>0.9698760023088264</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6226,10 +6226,10 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>1.057897606843964</v>
+        <v>1.047005182327928</v>
       </c>
       <c r="C532">
-        <v>0.9977294022866493</v>
+        <v>0.9692310578127671</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6237,10 +6237,10 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>1.0609512905982</v>
+        <v>1.049440867534483</v>
       </c>
       <c r="C533">
-        <v>0.9981845600175928</v>
+        <v>0.9696521594645018</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6248,10 +6248,10 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>1.0561127238691</v>
+        <v>1.045575999760923</v>
       </c>
       <c r="C534">
-        <v>0.9974628155089492</v>
+        <v>0.9689807775722104</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6259,10 +6259,10 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>1.05689484080726</v>
+        <v>1.046201781923638</v>
       </c>
       <c r="C535">
-        <v>0.9975803943530247</v>
+        <v>0.9830138338831229</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6270,10 +6270,10 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>1.053380331433386</v>
+        <v>1.043371430263005</v>
       </c>
       <c r="C536">
-        <v>0.9970609026236832</v>
+        <v>0.9825161731984994</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6281,10 +6281,10 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>1.053389272513801</v>
+        <v>1.04334419365033</v>
       </c>
       <c r="C537">
-        <v>0.9970883293790345</v>
+        <v>0.9825195450492468</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6292,10 +6292,10 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>1.049209277662939</v>
+        <v>1.04001143343352</v>
       </c>
       <c r="C538">
-        <v>0.9964289734513527</v>
+        <v>0.9819100494821548</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6303,10 +6303,10 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>1.046782214817328</v>
+        <v>1.038055158151794</v>
       </c>
       <c r="C539">
-        <v>0.9960542322309053</v>
+        <v>0.9815497591364822</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6314,10 +6314,10 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>1.047307040430256</v>
+        <v>1.03844985757915</v>
       </c>
       <c r="C540">
-        <v>0.9961578744190515</v>
+        <v>0.9816298438574328</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6325,10 +6325,10 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>1.042045336250569</v>
+        <v>1.034270333244035</v>
       </c>
       <c r="C541">
-        <v>0.995279687408029</v>
+        <v>0.9808285913886164</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6336,10 +6336,10 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>1.03565183795742</v>
+        <v>1.029139426616501</v>
       </c>
       <c r="C542">
-        <v>0.9942168111951878</v>
+        <v>0.9798235685222482</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6347,10 +6347,10 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>1.035519222660318</v>
+        <v>1.02896588322014</v>
       </c>
       <c r="C543">
-        <v>0.9942498079267715</v>
+        <v>0.9798062770276937</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6358,10 +6358,10 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>1.030531746684056</v>
+        <v>1.02499553934262</v>
       </c>
       <c r="C544">
-        <v>0.9933667665517898</v>
+        <v>0.9789939702990738</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6369,10 +6369,10 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>1.029542816601736</v>
+        <v>1.02416236986</v>
       </c>
       <c r="C545">
-        <v>0.9932276940642243</v>
+        <v>0.9931925191374724</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6380,10 +6380,10 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>1.023901151867955</v>
+        <v>1.019618955650122</v>
       </c>
       <c r="C546">
-        <v>0.9922401670071076</v>
+        <v>0.9922401670070391</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6391,10 +6391,10 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>1.018212130663642</v>
+        <v>1.01504954826983</v>
       </c>
       <c r="C547">
-        <v>0.9912047664201575</v>
+        <v>0.9912047664201669</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6402,10 +6402,10 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>1.012320288545114</v>
+        <v>1.010332874553584</v>
       </c>
       <c r="C548">
-        <v>0.9900729497661007</v>
+        <v>0.9900729497661324</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6413,10 +6413,10 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>1.003784571249565</v>
+        <v>1.003297243459707</v>
       </c>
       <c r="C549">
-        <v>0.9858086559319573</v>
+        <v>0.9858086559320265</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6424,10 +6424,10 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>1.003392992634415</v>
+        <v>1.003392992634468</v>
       </c>
       <c r="C550">
-        <v>0.9851241700902821</v>
+        <v>0.9851241700903032</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6435,10 +6435,10 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>1.00067798832418</v>
+        <v>1.000677988324207</v>
       </c>
       <c r="C551">
-        <v>0.9703277570370268</v>
+        <v>0.9703277570370139</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6449,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="C552">
-        <v>0.9608749843754566</v>
+        <v>0.9608749843755232</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6457,10 +6457,10 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>1</v>
+        <v>1.012571129486077</v>
       </c>
       <c r="C553">
-        <v>0.9517528561132481</v>
+        <v>0.9517528561132171</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6468,10 +6468,10 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>1</v>
+        <v>1.010233458034935</v>
       </c>
       <c r="C554">
-        <v>0.9553988984337246</v>
+        <v>0.9553988984336154</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6479,10 +6479,10 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>1.007350442450716</v>
+        <v>1.008370229813603</v>
       </c>
       <c r="C555">
-        <v>0.9502606270348287</v>
+        <v>0.9596685474669687</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6490,10 +6490,10 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>1.006995720413313</v>
+        <v>1.024048113048531</v>
       </c>
       <c r="C556">
-        <v>0.9487459092390567</v>
+        <v>0.9584854191826958</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6501,10 +6501,10 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>1.006270398740452</v>
+        <v>1.023386357838216</v>
       </c>
       <c r="C557">
-        <v>0.945556574364095</v>
+        <v>0.9560038269947561</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6512,10 +6512,10 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>1.019525102282153</v>
+        <v>1.020741887085243</v>
       </c>
       <c r="C558">
-        <v>0.9330355101206466</v>
+        <v>0.946290448280567</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6523,10 +6523,10 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>1.018228784547855</v>
+        <v>1.019558423790776</v>
       </c>
       <c r="C559">
-        <v>0.9275485893088166</v>
+        <v>0.9420349412812612</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6534,10 +6534,10 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>1.018818605000168</v>
+        <v>1.020115014121824</v>
       </c>
       <c r="C560">
-        <v>0.9301251425178235</v>
+        <v>0.9440260810277207</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6545,10 +6545,10 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>1.02033042368514</v>
+        <v>1.02033042368512</v>
       </c>
       <c r="C561">
-        <v>0.9231357514363911</v>
+        <v>0.9386297744924929</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6556,10 +6556,10 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>1.035801461686017</v>
+        <v>1.035801461686021</v>
       </c>
       <c r="C562">
-        <v>0.917620628928149</v>
+        <v>0.9343917161011105</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6567,10 +6567,10 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>1.034339838165271</v>
+        <v>1.035622645879036</v>
       </c>
       <c r="C563">
-        <v>0.9249388050018922</v>
+        <v>0.9400279205480624</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6578,10 +6578,10 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>1.035890188306111</v>
+        <v>1.035890188306161</v>
       </c>
       <c r="C564">
-        <v>0.9316858626831724</v>
+        <v>0.9452560388512243</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6589,10 +6589,10 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>1.036218225729761</v>
+        <v>1.036218225729754</v>
       </c>
       <c r="C565">
-        <v>0.9331754802240195</v>
+        <v>0.9464085854038594</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6600,10 +6600,10 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>1.03573793746157</v>
+        <v>1.035737937461564</v>
       </c>
       <c r="C566">
-        <v>0.9307859133990519</v>
+        <v>0.9445740501938749</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6611,10 +6611,10 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>1.037817602028024</v>
+        <v>1.037817602027996</v>
       </c>
       <c r="C567">
-        <v>0.9399675565347819</v>
+        <v>0.951707236195184</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6622,10 +6622,10 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>1.039683783320953</v>
+        <v>1.039683783320964</v>
       </c>
       <c r="C568">
-        <v>0.9484884850016747</v>
+        <v>0.958337799356507</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6633,10 +6633,10 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>1.041297931980459</v>
+        <v>1.041297931980522</v>
       </c>
       <c r="C569">
-        <v>0.9559458029321202</v>
+        <v>0.9641577619807972</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6644,10 +6644,10 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>1.041045584854259</v>
+        <v>1.041045584854269</v>
       </c>
       <c r="C570">
-        <v>0.9544802509653845</v>
+        <v>0.9630333232520289</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6655,10 +6655,10 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>1.043502974712874</v>
+        <v>1.043502974712907</v>
       </c>
       <c r="C571">
-        <v>0.9660430163351904</v>
+        <v>0.9720782829376541</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6666,10 +6666,10 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>1.046241612017818</v>
+        <v>1.046241612017916</v>
       </c>
       <c r="C572">
-        <v>0.9793928114025192</v>
+        <v>0.9825482948091946</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6680,7 +6680,7 @@
         <v>1.046856461644339</v>
       </c>
       <c r="C573">
-        <v>0.9824380692824064</v>
+        <v>0.9849420022792156</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6688,10 +6688,10 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>1.048275851116462</v>
+        <v>1.048275851116468</v>
       </c>
       <c r="C574">
-        <v>0.989375367759339</v>
+        <v>0.9893753677593464</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6699,10 +6699,10 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>1.049734219451551</v>
+        <v>1.049734219451593</v>
       </c>
       <c r="C575">
-        <v>0.9963072758002597</v>
+        <v>0.9963072758001369</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6710,10 +6710,10 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>1.034212855013082</v>
+        <v>1.034212855013071</v>
       </c>
       <c r="C576">
-        <v>0.999353861964128</v>
+        <v>0.9993538619641744</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6721,10 +6721,10 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>1.034367152140366</v>
+        <v>1.034367152140391</v>
       </c>
       <c r="C577">
-        <v>0.9998930024443138</v>
+        <v>0.9998930024443486</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6732,7 +6732,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>1.04287313165021</v>
+        <v>1.042873131649996</v>
       </c>
       <c r="C578">
         <v>1</v>
@@ -6743,10 +6743,10 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>1.03909015046374</v>
+        <v>1.03909015046371</v>
       </c>
       <c r="C579">
-        <v>1</v>
+        <v>0.9895414986268863</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6754,10 +6754,10 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>1.042705722193815</v>
+        <v>1.04270572219389</v>
       </c>
       <c r="C580">
-        <v>1</v>
+        <v>0.9902047169485606</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6765,10 +6765,10 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>1.04388566400654</v>
+        <v>1.04388566400667</v>
       </c>
       <c r="C581">
-        <v>1</v>
+        <v>0.9904290945194195</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6776,10 +6776,10 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>1.042773413146805</v>
+        <v>1.042773413146704</v>
       </c>
       <c r="C582">
-        <v>1</v>
+        <v>0.9901914964859543</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -6787,10 +6787,10 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>1.045989778242413</v>
+        <v>1.045989778242489</v>
       </c>
       <c r="C583">
-        <v>1</v>
+        <v>0.9907940473423612</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -6798,10 +6798,10 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>1.041335577635104</v>
+        <v>1.041335577634898</v>
       </c>
       <c r="C584">
-        <v>1</v>
+        <v>0.989944962139805</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -6809,10 +6809,10 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>1.041785835890533</v>
+        <v>1.041785835890582</v>
       </c>
       <c r="C585">
-        <v>1</v>
+        <v>0.9900300113029492</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -6820,10 +6820,10 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>1.04441974407238</v>
+        <v>1.044419744072392</v>
       </c>
       <c r="C586">
-        <v>1</v>
+        <v>0.9905080840273384</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -6831,10 +6831,10 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>1.047395719520645</v>
+        <v>1.047395719520487</v>
       </c>
       <c r="C587">
-        <v>1</v>
+        <v>0.9910312789062538</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -6842,10 +6842,10 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>1.049440519091476</v>
+        <v>1.049440519091547</v>
       </c>
       <c r="C588">
-        <v>1</v>
+        <v>0.9914065521715434</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -6853,10 +6853,10 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>1.047094118563078</v>
+        <v>1.047094118562863</v>
       </c>
       <c r="C589">
-        <v>1</v>
+        <v>0.9910008025605608</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -6864,10 +6864,10 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>1.046507390810916</v>
+        <v>1.046507390810767</v>
       </c>
       <c r="C590">
-        <v>1</v>
+        <v>0.9908578450131097</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -6875,10 +6875,10 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>1.04451335250048</v>
+        <v>1.044513352500568</v>
       </c>
       <c r="C591">
-        <v>1</v>
+        <v>0.9905107896330154</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -6886,10 +6886,10 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>1.045628346305478</v>
+        <v>1.045628346305508</v>
       </c>
       <c r="C592">
-        <v>1</v>
+        <v>0.9907242676702154</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -6897,10 +6897,10 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>1.048253654421461</v>
+        <v>1.0482536544214</v>
       </c>
       <c r="C593">
-        <v>1</v>
+        <v>0.9911788817057693</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -6908,10 +6908,10 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>1.046195848362267</v>
+        <v>1.046195848362083</v>
       </c>
       <c r="C594">
-        <v>1</v>
+        <v>0.9908035766254595</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -6919,10 +6919,10 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>1.048029390244253</v>
+        <v>1.048029390244138</v>
       </c>
       <c r="C595">
-        <v>1</v>
+        <v>0.9911576050635628</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -6930,10 +6930,10 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>1.049777164594693</v>
+        <v>1.04977716459475</v>
       </c>
       <c r="C596">
-        <v>1</v>
+        <v>0.9914776119074682</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -6941,10 +6941,10 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>1.04697149656661</v>
+        <v>1.046971496566852</v>
       </c>
       <c r="C597">
-        <v>1</v>
+        <v>0.9909651214165993</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -6952,10 +6952,10 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>1.049369462364872</v>
+        <v>1.049369462364926</v>
       </c>
       <c r="C598">
-        <v>1</v>
+        <v>0.9913860409854048</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -6963,10 +6963,10 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>1.037310436294806</v>
+        <v>1.037310436294726</v>
       </c>
       <c r="C599">
-        <v>1</v>
+        <v>0.9920316687887539</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -6974,10 +6974,10 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>1.044488290593868</v>
+        <v>1.044488290593686</v>
       </c>
       <c r="C600">
-        <v>1</v>
+        <v>0.9932543830820849</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -6985,10 +6985,10 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>1.04309535262605</v>
+        <v>1.043095352626061</v>
       </c>
       <c r="C601">
-        <v>1</v>
+        <v>0.9930447737516708</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -6996,10 +6996,10 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>1.049680403253</v>
+        <v>1.049680403252895</v>
       </c>
       <c r="C602">
-        <v>1</v>
+        <v>0.994112779962719</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7007,10 +7007,10 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>1.04738544669511</v>
+        <v>1.047385446695127</v>
       </c>
       <c r="C603">
-        <v>1</v>
+        <v>0.9794133846986416</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7018,10 +7018,10 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>1.040022466377191</v>
+        <v>1.039441934928129</v>
       </c>
       <c r="C604">
-        <v>1</v>
+        <v>0.980546571570321</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7029,10 +7029,10 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>1.046473072174498</v>
+        <v>1.045862679248656</v>
       </c>
       <c r="C605">
-        <v>1</v>
+        <v>0.981535614673643</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7040,10 +7040,10 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>1.042319955824957</v>
+        <v>1.041539605379787</v>
       </c>
       <c r="C606">
-        <v>1</v>
+        <v>0.9809007989432903</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7051,10 +7051,10 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>1.044124744124852</v>
+        <v>1.043239003060374</v>
       </c>
       <c r="C607">
-        <v>1</v>
+        <v>0.9811763151012345</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7062,10 +7062,10 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>1.04855485565433</v>
+        <v>1.04763204254024</v>
       </c>
       <c r="C608">
-        <v>1</v>
+        <v>0.9818426494805724</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7073,10 +7073,10 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>1.054604601649218</v>
+        <v>1.043848432472588</v>
       </c>
       <c r="C609">
-        <v>0.9976227987873094</v>
+        <v>0.9827217969667092</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7084,10 +7084,10 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>1.060597039134191</v>
+        <v>1.048621718642891</v>
       </c>
       <c r="C610">
-        <v>0.9985192766249213</v>
+        <v>0.9835593384290056</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7095,10 +7095,10 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>1.055858697470471</v>
+        <v>1.044915862908673</v>
       </c>
       <c r="C611">
-        <v>0.9977634029700254</v>
+        <v>0.9689730519649052</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7106,10 +7106,10 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>1.056010143597123</v>
+        <v>1.045073248328699</v>
       </c>
       <c r="C612">
-        <v>0.9977593742357228</v>
+        <v>0.9829150242029626</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7117,10 +7117,10 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>1.057730842146086</v>
+        <v>1.046533378470535</v>
       </c>
       <c r="C613">
-        <v>0.9979536262760891</v>
+        <v>0.9831512933267095</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7128,10 +7128,10 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>1.055890574562092</v>
+        <v>1.045111255945593</v>
       </c>
       <c r="C614">
-        <v>0.9976428983746181</v>
+        <v>0.9689670993813518</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7139,10 +7139,10 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>1.057395452886868</v>
+        <v>1.04635391631468</v>
       </c>
       <c r="C615">
-        <v>0.9978388296477559</v>
+        <v>0.9830990626822362</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7150,10 +7150,10 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>1.054889179335324</v>
+        <v>1.04439366746381</v>
       </c>
       <c r="C616">
-        <v>0.9974300080633838</v>
+        <v>0.9688197992335469</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7161,10 +7161,10 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>1.051436576951994</v>
+        <v>1.041729762120715</v>
       </c>
       <c r="C617">
-        <v>0.9968265772390381</v>
+        <v>0.9822403882905176</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7172,10 +7172,10 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>1.054405657530951</v>
+        <v>1.044127141744217</v>
       </c>
       <c r="C618">
-        <v>0.9972664807669637</v>
+        <v>0.9826668646720779</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7183,10 +7183,10 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>1.046026181235106</v>
+        <v>1.037535055121442</v>
       </c>
       <c r="C619">
-        <v>0.9958660066193691</v>
+        <v>0.9814310322868423</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7194,10 +7194,10 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>1.048076038320984</v>
+        <v>1.03921855423835</v>
       </c>
       <c r="C620">
-        <v>0.9961606628890124</v>
+        <v>0.9817352646107633</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7205,10 +7205,10 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>1.038984752723481</v>
+        <v>1.032052930569985</v>
       </c>
       <c r="C621">
-        <v>0.9945806108526695</v>
+        <v>0.9803380091790219</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7216,10 +7216,10 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>1.043426999877802</v>
+        <v>1.03564215985606</v>
       </c>
       <c r="C622">
-        <v>0.9952934645973828</v>
+        <v>0.9810251043739301</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7227,10 +7227,10 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>1.038844794372961</v>
+        <v>1.032018102610331</v>
       </c>
       <c r="C623">
-        <v>0.9944934444786847</v>
+        <v>0.9803114199233741</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7238,10 +7238,10 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>1.039415918416268</v>
+        <v>1.032523700268242</v>
       </c>
       <c r="C624">
-        <v>0.9945500492536046</v>
+        <v>0.9803982247110625</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7249,10 +7249,10 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>1.03618145713122</v>
+        <v>1.029985253723181</v>
       </c>
       <c r="C625">
-        <v>0.99395658584123</v>
+        <v>0.9798833955405427</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7260,10 +7260,10 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>1.026816530044556</v>
+        <v>1.022563430091472</v>
       </c>
       <c r="C626">
-        <v>0.9922365534148925</v>
+        <v>0.9783439023436464</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7271,10 +7271,10 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>1.028305884653564</v>
+        <v>1.023705904806672</v>
       </c>
       <c r="C627">
-        <v>0.9925491742420079</v>
+        <v>0.9925491742419664</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7282,10 +7282,10 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>1.028741356175569</v>
+        <v>1.024054905949761</v>
       </c>
       <c r="C628">
-        <v>0.9926270318101726</v>
+        <v>0.992627031810114</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7293,10 +7293,10 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>1.025739654064784</v>
+        <v>1.021645544577092</v>
       </c>
       <c r="C629">
-        <v>0.9920894467945307</v>
+        <v>0.992089446794497</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7304,10 +7304,10 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>1.030117281934034</v>
+        <v>1.025104122242152</v>
       </c>
       <c r="C630">
-        <v>0.9929179268778867</v>
+        <v>0.9929179268779047</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7315,10 +7315,10 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>1.033990373834278</v>
+        <v>1.028170722510032</v>
       </c>
       <c r="C631">
-        <v>0.9936282732487921</v>
+        <v>0.9936282732487779</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7326,10 +7326,10 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>1.035060234531779</v>
+        <v>1.028973072811878</v>
       </c>
       <c r="C632">
-        <v>0.9938592954850161</v>
+        <v>0.9797105168676673</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7337,10 +7337,10 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>1.030288039610039</v>
+        <v>1.025112840686482</v>
       </c>
       <c r="C633">
-        <v>0.9930580511959093</v>
+        <v>0.9789355313843628</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7348,10 +7348,10 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>1.036692714773205</v>
+        <v>1.030187786669007</v>
       </c>
       <c r="C634">
-        <v>0.9942165654597219</v>
+        <v>0.9942165654597233</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7359,10 +7359,10 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>1.035967915195483</v>
+        <v>1.02954709722247</v>
       </c>
       <c r="C635">
-        <v>0.9941427683890368</v>
+        <v>0.979865052068454</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7370,10 +7370,10 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>1.03635519644116</v>
+        <v>1.029836496186324</v>
       </c>
       <c r="C636">
-        <v>0.9942261225298246</v>
+        <v>0.9799281405506449</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7381,10 +7381,10 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>1.042696048408148</v>
+        <v>1.034799835704167</v>
       </c>
       <c r="C637">
-        <v>0.995379786251785</v>
+        <v>0.9809283309117576</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7392,10 +7392,10 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>1.039615158003758</v>
+        <v>1.032285427728703</v>
       </c>
       <c r="C638">
-        <v>0.9949084805042332</v>
+        <v>0.9804530597244319</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7403,10 +7403,10 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>1.041673067257367</v>
+        <v>1.033892936703109</v>
       </c>
       <c r="C639">
-        <v>0.9952820083596323</v>
+        <v>0.98077578408693</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7414,10 +7414,10 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>1.037758379773065</v>
+        <v>1.030730191010004</v>
       </c>
       <c r="C640">
-        <v>0.9946529475585471</v>
+        <v>0.9801647401400169</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7425,10 +7425,10 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>1.033927488794939</v>
+        <v>1.027676821781233</v>
       </c>
       <c r="C641">
-        <v>0.9939889426996317</v>
+        <v>0.9795507476391346</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7436,10 +7436,10 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>1.036179422854139</v>
+        <v>1.029404182350852</v>
       </c>
       <c r="C642">
-        <v>0.9944364954796132</v>
+        <v>0.9799172628787022</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7447,10 +7447,10 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>1.023079034878621</v>
+        <v>1.018907067860704</v>
       </c>
       <c r="C643">
-        <v>0.9921372557634648</v>
+        <v>0.9777480007817916</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7458,10 +7458,10 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>1.029222641060835</v>
+        <v>1.023794063691193</v>
       </c>
       <c r="C644">
-        <v>0.9932660285439361</v>
+        <v>0.9931463416919201</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7469,10 +7469,10 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>1.017124674482261</v>
+        <v>1.014100240352187</v>
       </c>
       <c r="C645">
-        <v>0.9910712984235294</v>
+        <v>0.9910712984235041</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7480,10 +7480,10 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>1.018019964609664</v>
+        <v>1.014788482443625</v>
       </c>
       <c r="C646">
-        <v>0.9912641605797123</v>
+        <v>0.9912546568058689</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7491,10 +7491,10 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>1.009944469901404</v>
+        <v>1.008284160692972</v>
       </c>
       <c r="C647">
-        <v>0.9897479375059576</v>
+        <v>0.9897479375058919</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7502,10 +7502,10 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>1.006337306413126</v>
+        <v>1.005341022723269</v>
       </c>
       <c r="C648">
-        <v>0.9890486043919519</v>
+        <v>0.9890486043920391</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7513,10 +7513,10 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>1.004731048768065</v>
+        <v>1.004731048767886</v>
       </c>
       <c r="C649">
-        <v>0.9876527802052522</v>
+        <v>0.9876527802054282</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7524,10 +7524,10 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>1.002772292329144</v>
+        <v>1.002772292329166</v>
       </c>
       <c r="C650">
-        <v>0.9824701108719521</v>
+        <v>0.9824701108720234</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7535,10 +7535,10 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>1.000013133444287</v>
+        <v>1.000013133444339</v>
       </c>
       <c r="C651">
-        <v>0.9674506052203543</v>
+        <v>0.9674506052202938</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7549,7 +7549,7 @@
         <v>1</v>
       </c>
       <c r="C652">
-        <v>0.9575661949193269</v>
+        <v>0.9575661949193572</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7557,10 +7557,10 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>1</v>
+        <v>1.012074597958629</v>
       </c>
       <c r="C653">
-        <v>0.9655332473815875</v>
+        <v>0.9655332473815295</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7568,10 +7568,10 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>1</v>
+        <v>1.01084687246594</v>
       </c>
       <c r="C654">
-        <v>0.9594429710119267</v>
+        <v>0.9594429710118947</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7579,10 +7579,10 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>1</v>
+        <v>1.010747672503411</v>
       </c>
       <c r="C655">
-        <v>0.9588911509613313</v>
+        <v>0.958891150961327</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7590,10 +7590,10 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>1</v>
+        <v>1.009638703624125</v>
       </c>
       <c r="C656">
-        <v>0.9532007028745567</v>
+        <v>0.9532007028747549</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7601,10 +7601,10 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>1.007976914604767</v>
+        <v>1.008813130503534</v>
       </c>
       <c r="C657">
-        <v>0.9523285685989639</v>
+        <v>0.9613287128117004</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7612,10 +7612,10 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>1.006720109987997</v>
+        <v>1.02368015747764</v>
       </c>
       <c r="C658">
-        <v>0.9469421991589658</v>
+        <v>0.9571217805225561</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7623,10 +7623,10 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>1.007470328835998</v>
+        <v>1.02435136657999</v>
       </c>
       <c r="C659">
-        <v>0.9501842416135678</v>
+        <v>0.9596505749731398</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7634,10 +7634,10 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>1.007187184650172</v>
+        <v>1.024039646850491</v>
       </c>
       <c r="C660">
-        <v>0.9486612831072669</v>
+        <v>0.9584830424374221</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7645,10 +7645,10 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>1.008109453531497</v>
+        <v>1.024929620724709</v>
       </c>
       <c r="C661">
-        <v>0.9529991593348435</v>
+        <v>0.961845988046915</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7656,10 +7656,10 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>1.008032512416086</v>
+        <v>1.008817315067871</v>
       </c>
       <c r="C662">
-        <v>0.952337130612784</v>
+        <v>0.961351797233568</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7667,10 +7667,10 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>1.009008928525075</v>
+        <v>1.0256563380522</v>
       </c>
       <c r="C663">
-        <v>0.9565421682598965</v>
+        <v>0.9646432770020301</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7678,10 +7678,10 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>1.01066757747681</v>
+        <v>1.011267062139114</v>
       </c>
       <c r="C664">
-        <v>0.9641727732557637</v>
+        <v>0.9705988054352338</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7689,10 +7689,10 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>1.011646836115575</v>
+        <v>1.012141757016608</v>
       </c>
       <c r="C665">
-        <v>0.9684848663250483</v>
+        <v>0.9739877355840015</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7700,10 +7700,10 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>1.012080253288434</v>
+        <v>1.01249950147963</v>
       </c>
       <c r="C666">
-        <v>0.9702554326593302</v>
+        <v>0.9753916502599729</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7711,10 +7711,10 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>1.014356276374615</v>
+        <v>1.014651913472504</v>
       </c>
       <c r="C667">
-        <v>0.9811991016479631</v>
+        <v>0.983963936278071</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7722,10 +7722,10 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>1.014554856278841</v>
+        <v>1.014554856278849</v>
       </c>
       <c r="C668">
-        <v>0.9820325699339101</v>
+        <v>0.982032569933878</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7733,10 +7733,10 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>1.015218858043284</v>
+        <v>1.015218858043294</v>
       </c>
       <c r="C669">
-        <v>0.9850424846934803</v>
+        <v>0.9850424846934727</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7744,10 +7744,10 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>1.016788343571686</v>
+        <v>1.016788343571535</v>
       </c>
       <c r="C670">
-        <v>0.992761545237816</v>
+        <v>0.992761545237825</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7755,7 +7755,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>1.018550979535286</v>
+        <v>1.018550979535337</v>
       </c>
       <c r="C671">
         <v>1</v>
@@ -7766,7 +7766,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>1.019208327760746</v>
+        <v>1.019208327760923</v>
       </c>
       <c r="C672">
         <v>1</v>
@@ -7777,7 +7777,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>1.023087561394606</v>
+        <v>1.023087561394795</v>
       </c>
       <c r="C673">
         <v>1</v>
